--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -13,7 +13,7 @@
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -701,8 +701,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,17 +761,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -809,7 +814,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -843,6 +848,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -877,9 +883,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,14 +1059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41</v>
       </c>
@@ -1096,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1176,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>68</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>53</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -1330,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>65</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1596,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>70</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1710,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>73</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>77</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>62</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>63</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>72</v>
       </c>
@@ -1902,14 +1911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>61</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>72</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>55</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>77</v>
       </c>
@@ -2126,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2166,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>63</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -2206,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -2226,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>30</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -2286,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>68</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -2366,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>36</v>
       </c>
@@ -2386,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>74</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>51</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -2572,14 +2581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -2636,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>70</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>79</v>
       </c>
@@ -2736,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>68</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>55</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>72</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2936,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -2976,7 +2985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>75</v>
       </c>
@@ -3056,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>66</v>
       </c>
@@ -3076,7 +3085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46</v>
       </c>
@@ -3136,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>78</v>
       </c>
@@ -3156,7 +3165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -3176,7 +3185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>56</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -3236,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>73</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>65</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -3336,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -3362,14 +3371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>65</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3466,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>33</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>59</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>75</v>
       </c>
@@ -3586,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>72</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>62</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>77</v>
       </c>
@@ -3666,7 +3675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>69</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -3746,7 +3755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>67</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>79</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -3906,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>52</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3946,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>36</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46</v>
       </c>
@@ -3992,14 +4001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4016,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -4036,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -4056,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -4076,7 +4085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>78</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>77</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>59</v>
       </c>
@@ -4176,7 +4185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>79</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37</v>
       </c>
@@ -4256,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -4296,7 +4305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>68</v>
       </c>
@@ -4316,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -4336,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>72</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>48</v>
       </c>
@@ -4416,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>54</v>
       </c>
@@ -4456,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>75</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>58</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>80</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>71</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>52</v>
       </c>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -12,13 +12,15 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="276">
   <si>
     <t>Scorer</t>
   </si>
@@ -696,13 +698,163 @@
   </si>
   <si>
     <t>арс</t>
+  </si>
+  <si>
+    <t>аллер</t>
+  </si>
+  <si>
+    <t>антони</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>бакасетас</t>
+  </si>
+  <si>
+    <t>бебу</t>
+  </si>
+  <si>
+    <t>влахович</t>
+  </si>
+  <si>
+    <t>влашич</t>
+  </si>
+  <si>
+    <t>гийомено</t>
+  </si>
+  <si>
+    <t>гризман</t>
+  </si>
+  <si>
+    <t>де йонг</t>
+  </si>
+  <si>
+    <t>кабрал</t>
+  </si>
+  <si>
+    <t>дуа</t>
+  </si>
+  <si>
+    <t>классен</t>
+  </si>
+  <si>
+    <t>кокорин</t>
+  </si>
+  <si>
+    <t>ляказетт</t>
+  </si>
+  <si>
+    <t>маунт</t>
+  </si>
+  <si>
+    <t>моллен</t>
+  </si>
+  <si>
+    <t>нвакаэме</t>
+  </si>
+  <si>
+    <t>рэшфорд</t>
+  </si>
+  <si>
+    <t>фарду</t>
+  </si>
+  <si>
+    <t>базель</t>
+  </si>
+  <si>
+    <t>трабзонспор</t>
+  </si>
+  <si>
+    <t>хофенхайм</t>
+  </si>
+  <si>
+    <t>цска</t>
+  </si>
+  <si>
+    <t>санкт-галлен</t>
+  </si>
+  <si>
+    <t>ман юнайтед</t>
+  </si>
+  <si>
+    <t>боаду</t>
+  </si>
+  <si>
+    <t>броя</t>
+  </si>
+  <si>
+    <t>вольф</t>
+  </si>
+  <si>
+    <t>заболотный</t>
+  </si>
+  <si>
+    <t>ихеначо</t>
+  </si>
+  <si>
+    <t>копмейнерс</t>
+  </si>
+  <si>
+    <t>ларссон</t>
+  </si>
+  <si>
+    <t>мартинес</t>
+  </si>
+  <si>
+    <t>плеа</t>
+  </si>
+  <si>
+    <t>понсе</t>
+  </si>
+  <si>
+    <t>промес</t>
+  </si>
+  <si>
+    <t>санчес</t>
+  </si>
+  <si>
+    <t>сарджент</t>
+  </si>
+  <si>
+    <t>соу</t>
+  </si>
+  <si>
+    <t>феликс</t>
+  </si>
+  <si>
+    <t>хоффман</t>
+  </si>
+  <si>
+    <t>шик</t>
+  </si>
+  <si>
+    <t>аз</t>
+  </si>
+  <si>
+    <t>витесс</t>
+  </si>
+  <si>
+    <t>кельн</t>
+  </si>
+  <si>
+    <t>сочи</t>
+  </si>
+  <si>
+    <t>спартак</t>
+  </si>
+  <si>
+    <t>ростов</t>
+  </si>
+  <si>
+    <t>байер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,22 +913,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -814,7 +961,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -848,7 +995,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -883,10 +1029,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1059,16 +1204,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>41</v>
       </c>
@@ -1105,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>42</v>
       </c>
@@ -1125,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1145,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -1165,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>27</v>
       </c>
@@ -1185,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -1205,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>68</v>
       </c>
@@ -1225,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>39</v>
       </c>
@@ -1245,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -1265,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1285,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>53</v>
       </c>
@@ -1305,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>40</v>
       </c>
@@ -1325,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>47</v>
       </c>
@@ -1345,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>64</v>
       </c>
@@ -1365,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -1385,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -1405,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>65</v>
       </c>
@@ -1425,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -1445,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1465,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -1485,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1505,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1525,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>44</v>
       </c>
@@ -1545,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -1565,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1585,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1605,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -1625,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -1645,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1665,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>70</v>
       </c>
@@ -1685,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>16</v>
       </c>
@@ -1705,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1725,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>13</v>
       </c>
@@ -1745,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>73</v>
       </c>
@@ -1765,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>77</v>
       </c>
@@ -1785,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -1805,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>33</v>
       </c>
@@ -1825,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>62</v>
       </c>
@@ -1845,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>63</v>
       </c>
@@ -1865,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1885,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>72</v>
       </c>
@@ -1911,14 +2054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +2078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -1955,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1975,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>61</v>
       </c>
@@ -1995,7 +2138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>53</v>
       </c>
@@ -2015,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -2035,7 +2178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -2055,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -2075,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>72</v>
       </c>
@@ -2095,7 +2238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>55</v>
       </c>
@@ -2115,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>77</v>
       </c>
@@ -2135,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -2155,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2175,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>63</v>
       </c>
@@ -2195,7 +2338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -2215,7 +2358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -2235,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -2255,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>30</v>
       </c>
@@ -2275,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>80</v>
       </c>
@@ -2295,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>34</v>
       </c>
@@ -2315,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -2335,7 +2478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>68</v>
       </c>
@@ -2355,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>62</v>
       </c>
@@ -2375,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>36</v>
       </c>
@@ -2395,7 +2538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>74</v>
       </c>
@@ -2415,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -2435,7 +2578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -2455,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -2475,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>43</v>
       </c>
@@ -2495,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -2515,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -2535,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>51</v>
       </c>
@@ -2555,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -2581,14 +2724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -2625,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -2645,7 +2788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>70</v>
       </c>
@@ -2665,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>63</v>
       </c>
@@ -2685,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2705,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>61</v>
       </c>
@@ -2725,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>79</v>
       </c>
@@ -2745,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>26</v>
       </c>
@@ -2765,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>68</v>
       </c>
@@ -2785,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>55</v>
       </c>
@@ -2805,7 +2948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2825,7 +2968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>72</v>
       </c>
@@ -2845,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -2865,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2885,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -2905,7 +3048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>31</v>
       </c>
@@ -2925,7 +3068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2945,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -2965,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -2985,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -3005,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -3025,7 +3168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -3045,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>75</v>
       </c>
@@ -3065,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>66</v>
       </c>
@@ -3085,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -3105,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>42</v>
       </c>
@@ -3125,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>46</v>
       </c>
@@ -3145,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>78</v>
       </c>
@@ -3165,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -3185,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>76</v>
       </c>
@@ -3205,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>56</v>
       </c>
@@ -3225,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>20</v>
       </c>
@@ -3245,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3265,7 +3408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>73</v>
       </c>
@@ -3285,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -3305,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>65</v>
       </c>
@@ -3325,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -3345,7 +3488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -3371,14 +3514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -3415,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>31</v>
       </c>
@@ -3435,7 +3578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>65</v>
       </c>
@@ -3455,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3475,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -3495,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>33</v>
       </c>
@@ -3515,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -3535,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>60</v>
       </c>
@@ -3555,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>59</v>
       </c>
@@ -3575,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>75</v>
       </c>
@@ -3595,7 +3738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -3615,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>72</v>
       </c>
@@ -3635,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>62</v>
       </c>
@@ -3655,7 +3798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>77</v>
       </c>
@@ -3675,7 +3818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>35</v>
       </c>
@@ -3695,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>69</v>
       </c>
@@ -3715,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3735,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -3755,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3775,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3795,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -3815,7 +3958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -3835,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>67</v>
       </c>
@@ -3855,7 +3998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>79</v>
       </c>
@@ -3875,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3895,7 +4038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -3915,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>52</v>
       </c>
@@ -3935,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3955,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>36</v>
       </c>
@@ -3975,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>46</v>
       </c>
@@ -4001,14 +4144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4025,7 +4168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>14</v>
       </c>
@@ -4045,7 +4188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -4065,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -4085,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -4105,7 +4248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4125,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>78</v>
       </c>
@@ -4145,7 +4288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>77</v>
       </c>
@@ -4165,7 +4308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>59</v>
       </c>
@@ -4185,7 +4328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>79</v>
       </c>
@@ -4205,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -4225,7 +4368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -4245,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>37</v>
       </c>
@@ -4265,7 +4408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>36</v>
       </c>
@@ -4285,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -4305,7 +4448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>68</v>
       </c>
@@ -4325,7 +4468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -4345,7 +4488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4365,7 +4508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -4385,7 +4528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>72</v>
       </c>
@@ -4405,7 +4548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>48</v>
       </c>
@@ -4425,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>28</v>
       </c>
@@ -4445,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>54</v>
       </c>
@@ -4465,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -4485,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -4505,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>75</v>
       </c>
@@ -4525,7 +4668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>61</v>
       </c>
@@ -4545,7 +4688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>58</v>
       </c>
@@ -4565,7 +4708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>80</v>
       </c>
@@ -4585,7 +4728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -4605,7 +4748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4625,7 +4768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>25</v>
       </c>
@@ -4645,7 +4788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>71</v>
       </c>
@@ -4665,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>52</v>
       </c>
@@ -4683,6 +4826,1426 @@
       </c>
       <c r="F34">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -14,13 +14,15 @@
     <sheet name="5" sheetId="5" r:id="rId5"/>
     <sheet name="6" sheetId="6" r:id="rId6"/>
     <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="314">
   <si>
     <t>Scorer</t>
   </si>
@@ -848,6 +850,120 @@
   </si>
   <si>
     <t>байер</t>
+  </si>
+  <si>
+    <t>алькасер</t>
+  </si>
+  <si>
+    <t>бэйл</t>
+  </si>
+  <si>
+    <t>винисиус</t>
+  </si>
+  <si>
+    <t>кент</t>
+  </si>
+  <si>
+    <t>молина</t>
+  </si>
+  <si>
+    <t>морелос</t>
+  </si>
+  <si>
+    <t>станчу</t>
+  </si>
+  <si>
+    <t>вильярреал</t>
+  </si>
+  <si>
+    <t>барса</t>
+  </si>
+  <si>
+    <t>рейнджерс</t>
+  </si>
+  <si>
+    <t>славия</t>
+  </si>
+  <si>
+    <t>аспас</t>
+  </si>
+  <si>
+    <t>бейл</t>
+  </si>
+  <si>
+    <t>бен-йеддер</t>
+  </si>
+  <si>
+    <t>буяльский</t>
+  </si>
+  <si>
+    <t>ван де стрек</t>
+  </si>
+  <si>
+    <t>гладкий</t>
+  </si>
+  <si>
+    <t>дестро</t>
+  </si>
+  <si>
+    <t>захеди</t>
+  </si>
+  <si>
+    <t>ингс</t>
+  </si>
+  <si>
+    <t>инсинье</t>
+  </si>
+  <si>
+    <t>кессье</t>
+  </si>
+  <si>
+    <t>кулибали</t>
+  </si>
+  <si>
+    <t>леау</t>
+  </si>
+  <si>
+    <t>махи</t>
+  </si>
+  <si>
+    <t>мина</t>
+  </si>
+  <si>
+    <t>опенда</t>
+  </si>
+  <si>
+    <t>соболев</t>
+  </si>
+  <si>
+    <t>фолланд</t>
+  </si>
+  <si>
+    <t>фомин</t>
+  </si>
+  <si>
+    <t>эдегор</t>
+  </si>
+  <si>
+    <t>эндо</t>
+  </si>
+  <si>
+    <t>сельта</t>
+  </si>
+  <si>
+    <t>монако</t>
+  </si>
+  <si>
+    <t>утрехт</t>
+  </si>
+  <si>
+    <t>заря</t>
+  </si>
+  <si>
+    <t>дженоа</t>
+  </si>
+  <si>
+    <t>динамо москва</t>
   </si>
 </sst>
 </file>
@@ -6251,4 +6367,1284 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -16,13 +16,15 @@
     <sheet name="7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="349">
   <si>
     <t>Scorer</t>
   </si>
@@ -964,6 +966,111 @@
   </si>
   <si>
     <t>динамо москва</t>
+  </si>
+  <si>
+    <t>агуеро</t>
+  </si>
+  <si>
+    <t>гнабри</t>
+  </si>
+  <si>
+    <t>госенс</t>
+  </si>
+  <si>
+    <t>де брюйне</t>
+  </si>
+  <si>
+    <t>карраско</t>
+  </si>
+  <si>
+    <t>нерес</t>
+  </si>
+  <si>
+    <t>нсаме</t>
+  </si>
+  <si>
+    <t>эйкрейм</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>мольде</t>
+  </si>
+  <si>
+    <t>абубакар</t>
+  </si>
+  <si>
+    <t>ауар</t>
+  </si>
+  <si>
+    <t>бэмфорд</t>
+  </si>
+  <si>
+    <t>депай</t>
+  </si>
+  <si>
+    <t>долберг</t>
+  </si>
+  <si>
+    <t>корне</t>
+  </si>
+  <si>
+    <t>крессвелл</t>
+  </si>
+  <si>
+    <t>кюизанс</t>
+  </si>
+  <si>
+    <t>ларин</t>
+  </si>
+  <si>
+    <t>лингард</t>
+  </si>
+  <si>
+    <t>милик</t>
+  </si>
+  <si>
+    <t>осимхен</t>
+  </si>
+  <si>
+    <t>пайет</t>
+  </si>
+  <si>
+    <t>рафинья</t>
+  </si>
+  <si>
+    <t>соучек</t>
+  </si>
+  <si>
+    <t>эдуард</t>
+  </si>
+  <si>
+    <t>бешикташ</t>
+  </si>
+  <si>
+    <t>лион</t>
+  </si>
+  <si>
+    <t>аз алкмар</t>
+  </si>
+  <si>
+    <t>лидс</t>
+  </si>
+  <si>
+    <t>ницца</t>
+  </si>
+  <si>
+    <t>вэст хэм</t>
+  </si>
+  <si>
+    <t>вест хэм</t>
+  </si>
+  <si>
+    <t>рейджерс</t>
+  </si>
+  <si>
+    <t>селтик</t>
   </si>
 </sst>
 </file>
@@ -2169,6 +2276,1306 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -18,13 +18,17 @@
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
     <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="402">
   <si>
     <t>Scorer</t>
   </si>
@@ -1071,6 +1075,165 @@
   </si>
   <si>
     <t>селтик</t>
+  </si>
+  <si>
+    <t>боуден</t>
+  </si>
+  <si>
+    <t>гуири</t>
+  </si>
+  <si>
+    <t>деспотович</t>
+  </si>
+  <si>
+    <t>кварацхелия</t>
+  </si>
+  <si>
+    <t>клаусс</t>
+  </si>
+  <si>
+    <t>коло-муани</t>
+  </si>
+  <si>
+    <t>крузе</t>
+  </si>
+  <si>
+    <t>макаров</t>
+  </si>
+  <si>
+    <t>мозес</t>
+  </si>
+  <si>
+    <t>мюллер</t>
+  </si>
+  <si>
+    <t>нессери</t>
+  </si>
+  <si>
+    <t>нкунку</t>
+  </si>
+  <si>
+    <t>сане</t>
+  </si>
+  <si>
+    <t>серлот</t>
+  </si>
+  <si>
+    <t>шомуродов</t>
+  </si>
+  <si>
+    <t>яремчук</t>
+  </si>
+  <si>
+    <t>рубин</t>
+  </si>
+  <si>
+    <t>стандард</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>унион берлин</t>
+  </si>
+  <si>
+    <t>лейпциг</t>
+  </si>
+  <si>
+    <t>гент</t>
+  </si>
+  <si>
+    <t>горецка</t>
+  </si>
+  <si>
+    <t>менди</t>
+  </si>
+  <si>
+    <t>катерин</t>
+  </si>
+  <si>
+    <t>бергейс</t>
+  </si>
+  <si>
+    <t>дембеле</t>
+  </si>
+  <si>
+    <t>диаби</t>
+  </si>
+  <si>
+    <t>калверт-льюин</t>
+  </si>
+  <si>
+    <t>камано</t>
+  </si>
+  <si>
+    <t>керк</t>
+  </si>
+  <si>
+    <t>костич</t>
+  </si>
+  <si>
+    <t>лакруа</t>
+  </si>
+  <si>
+    <t>мавидиди</t>
+  </si>
+  <si>
+    <t>ришарлисон</t>
+  </si>
+  <si>
+    <t>троссард</t>
+  </si>
+  <si>
+    <t>узлбек</t>
+  </si>
+  <si>
+    <t>фейеноорд</t>
+  </si>
+  <si>
+    <t>эвертон</t>
+  </si>
+  <si>
+    <t>локомотив</t>
+  </si>
+  <si>
+    <t>аубамеянг</t>
+  </si>
+  <si>
+    <t>гринвуд</t>
+  </si>
+  <si>
+    <t>ди мария</t>
+  </si>
+  <si>
+    <t>киммих</t>
+  </si>
+  <si>
+    <t>оливейра</t>
+  </si>
+  <si>
+    <t>пелегрини</t>
+  </si>
+  <si>
+    <t>пепе</t>
+  </si>
+  <si>
+    <t>погба</t>
+  </si>
+  <si>
+    <t>пулишич</t>
+  </si>
+  <si>
+    <t>фабиньо</t>
+  </si>
+  <si>
+    <t>холеш</t>
+  </si>
+  <si>
+    <t>шупо-мотин</t>
+  </si>
+  <si>
+    <t>боруссия</t>
   </si>
 </sst>
 </file>
@@ -3576,6 +3739,2546 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" t="s">
+        <v>370</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -22,13 +22,18 @@
     <sheet name="13" sheetId="13" r:id="rId13"/>
     <sheet name="14" sheetId="14" r:id="rId14"/>
     <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="477">
   <si>
     <t>Scorer</t>
   </si>
@@ -1234,6 +1239,231 @@
   </si>
   <si>
     <t>боруссия</t>
+  </si>
+  <si>
+    <t>баба</t>
+  </si>
+  <si>
+    <t>динь</t>
+  </si>
+  <si>
+    <t>дэвис</t>
+  </si>
+  <si>
+    <t>запата</t>
+  </si>
+  <si>
+    <t>имери</t>
+  </si>
+  <si>
+    <t>кией</t>
+  </si>
+  <si>
+    <t>кока</t>
+  </si>
+  <si>
+    <t>мораес</t>
+  </si>
+  <si>
+    <t>пукай</t>
+  </si>
+  <si>
+    <t>свидерски</t>
+  </si>
+  <si>
+    <t>соломон</t>
+  </si>
+  <si>
+    <t>шупо-мотинг</t>
+  </si>
+  <si>
+    <t>эль-араби</t>
+  </si>
+  <si>
+    <t>паок</t>
+  </si>
+  <si>
+    <t>динамо</t>
+  </si>
+  <si>
+    <t>серветт</t>
+  </si>
+  <si>
+    <t>олимпиакос</t>
+  </si>
+  <si>
+    <t>шахтер</t>
+  </si>
+  <si>
+    <t>беллингхем</t>
+  </si>
+  <si>
+    <t>вишча</t>
+  </si>
+  <si>
+    <t>гонсалвеш</t>
+  </si>
+  <si>
+    <t>давидсон</t>
+  </si>
+  <si>
+    <t>делор</t>
+  </si>
+  <si>
+    <t>дольберг</t>
+  </si>
+  <si>
+    <t>жулиано</t>
+  </si>
+  <si>
+    <t>йевтич</t>
+  </si>
+  <si>
+    <t>какере</t>
+  </si>
+  <si>
+    <t>пектемек</t>
+  </si>
+  <si>
+    <t>раттер</t>
+  </si>
+  <si>
+    <t>спорар</t>
+  </si>
+  <si>
+    <t>шадли</t>
+  </si>
+  <si>
+    <t>шаллаи</t>
+  </si>
+  <si>
+    <t>эджуке</t>
+  </si>
+  <si>
+    <t>экамби</t>
+  </si>
+  <si>
+    <t>башакшехир</t>
+  </si>
+  <si>
+    <t>спортинг</t>
+  </si>
+  <si>
+    <t>азар</t>
+  </si>
+  <si>
+    <t>азмун</t>
+  </si>
+  <si>
+    <t>алькантара</t>
+  </si>
+  <si>
+    <t>бен йеддер</t>
+  </si>
+  <si>
+    <t>вендел</t>
+  </si>
+  <si>
+    <t>дзюба</t>
+  </si>
+  <si>
+    <t>мостовой</t>
+  </si>
+  <si>
+    <t>решфорд</t>
+  </si>
+  <si>
+    <t>харветц</t>
+  </si>
+  <si>
+    <t>зенит</t>
+  </si>
+  <si>
+    <t>манчестер</t>
+  </si>
+  <si>
+    <t>антонио</t>
+  </si>
+  <si>
+    <t>икарди</t>
+  </si>
+  <si>
+    <t>каземиро</t>
+  </si>
+  <si>
+    <t>кальвер-льюин</t>
+  </si>
+  <si>
+    <t>кимпембе</t>
+  </si>
+  <si>
+    <t>крыховяк</t>
+  </si>
+  <si>
+    <t>окампос</t>
+  </si>
+  <si>
+    <t>пайе</t>
+  </si>
+  <si>
+    <t>пеллегрини</t>
+  </si>
+  <si>
+    <t>рамос</t>
+  </si>
+  <si>
+    <t>смолов</t>
+  </si>
+  <si>
+    <t>тюкавин</t>
+  </si>
+  <si>
+    <t>вест хем</t>
+  </si>
+  <si>
+    <t>буффон</t>
+  </si>
+  <si>
+    <t>васин</t>
+  </si>
+  <si>
+    <t>ольмо</t>
+  </si>
+  <si>
+    <t>дзагоев</t>
+  </si>
+  <si>
+    <t>диоп</t>
+  </si>
+  <si>
+    <t>ихеиначо</t>
+  </si>
+  <si>
+    <t>кайо</t>
+  </si>
+  <si>
+    <t>лаутаро</t>
+  </si>
+  <si>
+    <t>лесовой</t>
+  </si>
+  <si>
+    <t>полоз</t>
+  </si>
+  <si>
+    <t>ракитич</t>
+  </si>
+  <si>
+    <t>уэлбек</t>
+  </si>
+  <si>
+    <t>форсберг</t>
+  </si>
+  <si>
+    <t>хаверц</t>
+  </si>
+  <si>
+    <t>чалов</t>
   </si>
 </sst>
 </file>
@@ -6279,6 +6509,2866 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C34" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" t="s">
+        <v>447</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>459</v>
+      </c>
+      <c r="C35" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>460</v>
+      </c>
+      <c r="C36" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
@@ -6942,6 +10032,736 @@
       </c>
       <c r="F33">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>468</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC03784-3DAC-4FEB-B195-A231B909D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="276">
   <si>
     <t>Team</t>
   </si>
@@ -31,158 +45,824 @@
     <t>Scorer</t>
   </si>
   <si>
+    <t>адамян</t>
+  </si>
+  <si>
+    <t>аларио</t>
+  </si>
+  <si>
+    <t>антонио</t>
+  </si>
+  <si>
+    <t>аспас</t>
+  </si>
+  <si>
+    <t>бенрахма</t>
+  </si>
+  <si>
+    <t>варди</t>
+  </si>
+  <si>
+    <t>вернер</t>
+  </si>
+  <si>
+    <t>даббур</t>
+  </si>
+  <si>
+    <t>дольберг</t>
+  </si>
+  <si>
+    <t>жоржиньо</t>
+  </si>
+  <si>
+    <t>ихеаначо</t>
+  </si>
+  <si>
+    <t>канте</t>
+  </si>
+  <si>
+    <t>комличенко</t>
+  </si>
+  <si>
+    <t>кордоба</t>
+  </si>
+  <si>
     <t>крамарич</t>
   </si>
   <si>
+    <t>крузе</t>
+  </si>
+  <si>
+    <t>ларсен</t>
+  </si>
+  <si>
+    <t>лукаку</t>
+  </si>
+  <si>
     <t>мохамед-али шо</t>
   </si>
   <si>
+    <t>пайет</t>
+  </si>
+  <si>
+    <t>плеа</t>
+  </si>
+  <si>
+    <t>пулишич</t>
+  </si>
+  <si>
+    <t>пуэртас</t>
+  </si>
+  <si>
     <t>смолов</t>
   </si>
   <si>
-    <t>вернер</t>
+    <t>солер</t>
+  </si>
+  <si>
+    <t>соучек</t>
+  </si>
+  <si>
+    <t>суарес</t>
+  </si>
+  <si>
+    <t>удер</t>
   </si>
   <si>
     <t>хаверц</t>
   </si>
   <si>
-    <t>даббур</t>
-  </si>
-  <si>
-    <t>антонио</t>
-  </si>
-  <si>
-    <t>кордоба</t>
-  </si>
-  <si>
-    <t>пулишич</t>
-  </si>
-  <si>
-    <t>лукаку</t>
-  </si>
-  <si>
-    <t>плеа</t>
-  </si>
-  <si>
-    <t>аспас</t>
-  </si>
-  <si>
-    <t>пайет</t>
-  </si>
-  <si>
-    <t>пуэртас</t>
-  </si>
-  <si>
-    <t>варди</t>
-  </si>
-  <si>
-    <t>дольберг</t>
-  </si>
-  <si>
-    <t>суарес</t>
-  </si>
-  <si>
-    <t>жоржиньо</t>
-  </si>
-  <si>
-    <t>ихеаначо</t>
+    <t>шик</t>
   </si>
   <si>
     <t>штиндль</t>
   </si>
   <si>
-    <t>крузе</t>
-  </si>
-  <si>
-    <t>аларио</t>
-  </si>
-  <si>
-    <t>комличенко</t>
-  </si>
-  <si>
-    <t>ларсен</t>
-  </si>
-  <si>
-    <t>канте</t>
-  </si>
-  <si>
-    <t>шик</t>
-  </si>
-  <si>
-    <t>бенрахма</t>
-  </si>
-  <si>
-    <t>солер</t>
-  </si>
-  <si>
-    <t>соучек</t>
-  </si>
-  <si>
     <t>яспас</t>
   </si>
   <si>
-    <t>адамян</t>
-  </si>
-  <si>
-    <t>удер</t>
-  </si>
-  <si>
     <t>хоффенхайм</t>
   </si>
   <si>
+    <t>байер</t>
+  </si>
+  <si>
+    <t>вест хэм</t>
+  </si>
+  <si>
+    <t>сельта</t>
+  </si>
+  <si>
+    <t>лестер</t>
+  </si>
+  <si>
+    <t>челси</t>
+  </si>
+  <si>
+    <t>ницца</t>
+  </si>
+  <si>
+    <t>ростов</t>
+  </si>
+  <si>
+    <t>краснодар</t>
+  </si>
+  <si>
+    <t>унион берлин</t>
+  </si>
+  <si>
     <t>анже</t>
   </si>
   <si>
+    <t>марсель</t>
+  </si>
+  <si>
+    <t>боруссия м</t>
+  </si>
+  <si>
+    <t>гранада</t>
+  </si>
+  <si>
     <t>локомотив</t>
   </si>
   <si>
-    <t>челси</t>
-  </si>
-  <si>
-    <t>вест хэм</t>
-  </si>
-  <si>
-    <t>краснодар</t>
-  </si>
-  <si>
-    <t>боруссия м</t>
-  </si>
-  <si>
-    <t>сельта</t>
-  </si>
-  <si>
-    <t>марсель</t>
-  </si>
-  <si>
-    <t>гранада</t>
-  </si>
-  <si>
-    <t>лестер</t>
-  </si>
-  <si>
-    <t>ницца</t>
-  </si>
-  <si>
-    <t>унион берлин</t>
-  </si>
-  <si>
-    <t>байер</t>
-  </si>
-  <si>
-    <t>ростов</t>
-  </si>
-  <si>
     <t>валенсия</t>
   </si>
   <si>
     <t>бордо</t>
+  </si>
+  <si>
+    <t>аль-гаддиуи</t>
+  </si>
+  <si>
+    <t>андре силва</t>
+  </si>
+  <si>
+    <t>армстронг</t>
+  </si>
+  <si>
+    <t>белотти</t>
+  </si>
+  <si>
+    <t>бонгонда</t>
+  </si>
+  <si>
+    <t>версарен</t>
+  </si>
+  <si>
+    <t>влахович</t>
+  </si>
+  <si>
+    <t>де томас</t>
+  </si>
+  <si>
+    <t>дессерс</t>
+  </si>
+  <si>
+    <t>жота</t>
+  </si>
+  <si>
+    <t>калверт-льюин</t>
+  </si>
+  <si>
+    <t>линссен</t>
+  </si>
+  <si>
+    <t>мопе</t>
+  </si>
+  <si>
+    <t>нкунку</t>
+  </si>
+  <si>
+    <t>онуачу</t>
+  </si>
+  <si>
+    <t>ришарлисон</t>
+  </si>
+  <si>
+    <t>салах</t>
+  </si>
+  <si>
+    <t>сен-максимен</t>
+  </si>
+  <si>
+    <t>силва</t>
+  </si>
+  <si>
+    <t>синестерра</t>
+  </si>
+  <si>
+    <t>собослаи</t>
+  </si>
+  <si>
+    <t>тюкавин</t>
+  </si>
+  <si>
+    <t>фомин</t>
+  </si>
+  <si>
+    <t>форсберг</t>
+  </si>
+  <si>
+    <t>штутгарт</t>
+  </si>
+  <si>
+    <t>рб лейпциг</t>
+  </si>
+  <si>
+    <t>саутгемптон</t>
+  </si>
+  <si>
+    <t>торино</t>
+  </si>
+  <si>
+    <t>генк</t>
+  </si>
+  <si>
+    <t>андерлехт</t>
+  </si>
+  <si>
+    <t>фиорентина</t>
+  </si>
+  <si>
+    <t>эспаньол</t>
+  </si>
+  <si>
+    <t>ливерпуль</t>
+  </si>
+  <si>
+    <t>эвертон</t>
+  </si>
+  <si>
+    <t>фейеноорд</t>
+  </si>
+  <si>
+    <t>брайтон</t>
+  </si>
+  <si>
+    <t>лейпциг</t>
+  </si>
+  <si>
+    <t>ньюкасл</t>
+  </si>
+  <si>
+    <t>динамо</t>
+  </si>
+  <si>
+    <t>бакасетас</t>
+  </si>
+  <si>
+    <t>бен-йеддер</t>
+  </si>
+  <si>
+    <t>ганаго</t>
+  </si>
+  <si>
+    <t>гнабри</t>
+  </si>
+  <si>
+    <t>гонсалвеш</t>
+  </si>
+  <si>
+    <t>диаби</t>
+  </si>
+  <si>
+    <t>жиру</t>
+  </si>
+  <si>
+    <t>ибрагимович</t>
+  </si>
+  <si>
+    <t>иммобиле</t>
+  </si>
+  <si>
+    <t>инсинье</t>
+  </si>
+  <si>
+    <t>лаборде</t>
+  </si>
+  <si>
+    <t>левандовски</t>
+  </si>
+  <si>
+    <t>мартинес</t>
+  </si>
+  <si>
+    <t>мбеумо</t>
+  </si>
+  <si>
+    <t>нвакаэме</t>
+  </si>
+  <si>
+    <t>педро гонсалвеш</t>
+  </si>
+  <si>
+    <t>ребич</t>
+  </si>
+  <si>
+    <t>ройс</t>
+  </si>
+  <si>
+    <t>тареми</t>
+  </si>
+  <si>
+    <t>тони</t>
+  </si>
+  <si>
+    <t>ундер</t>
+  </si>
+  <si>
+    <t>уэлбек</t>
+  </si>
+  <si>
+    <t>фофана</t>
+  </si>
+  <si>
+    <t>холланд</t>
+  </si>
+  <si>
+    <t>трабзонспор</t>
+  </si>
+  <si>
+    <t>монако</t>
+  </si>
+  <si>
+    <t>ланс</t>
+  </si>
+  <si>
+    <t>бавария</t>
+  </si>
+  <si>
+    <t>спортинг</t>
+  </si>
+  <si>
+    <t>милан</t>
+  </si>
+  <si>
+    <t>лацио</t>
+  </si>
+  <si>
+    <t>наполи</t>
+  </si>
+  <si>
+    <t>монпелье</t>
+  </si>
+  <si>
+    <t>порту</t>
+  </si>
+  <si>
+    <t>брентфорд</t>
+  </si>
+  <si>
+    <t>боруссия дортмунд</t>
+  </si>
+  <si>
+    <t>бензема</t>
+  </si>
+  <si>
+    <t>гризман</t>
+  </si>
+  <si>
+    <t>гринвуд</t>
+  </si>
+  <si>
+    <t>дибала</t>
+  </si>
+  <si>
+    <t>жезус</t>
+  </si>
+  <si>
+    <t>зиеш</t>
+  </si>
+  <si>
+    <t>корреа</t>
+  </si>
+  <si>
+    <t>лаутаро</t>
+  </si>
+  <si>
+    <t>мане</t>
+  </si>
+  <si>
+    <t>маунт</t>
+  </si>
+  <si>
+    <t>мбаппе</t>
+  </si>
+  <si>
+    <t>месси</t>
+  </si>
+  <si>
+    <t>мората</t>
+  </si>
+  <si>
+    <t>роналду</t>
+  </si>
+  <si>
+    <t>сапата</t>
+  </si>
+  <si>
+    <t>стерлинг</t>
+  </si>
+  <si>
+    <t>эн-несири</t>
+  </si>
+  <si>
+    <t>реал мадрид</t>
+  </si>
+  <si>
+    <t>атлетико</t>
+  </si>
+  <si>
+    <t>манчестер юнайтед</t>
+  </si>
+  <si>
+    <t>ювентус</t>
+  </si>
+  <si>
+    <t>манчестер сити</t>
+  </si>
+  <si>
+    <t>интер</t>
+  </si>
+  <si>
+    <t>псж</t>
+  </si>
+  <si>
+    <t>аталанта</t>
+  </si>
+  <si>
+    <t>боруссия д</t>
+  </si>
+  <si>
+    <t>севилья</t>
+  </si>
+  <si>
+    <t>ахметов</t>
+  </si>
+  <si>
+    <t>буркардт</t>
+  </si>
+  <si>
+    <t>гуири</t>
+  </si>
+  <si>
+    <t>диас</t>
+  </si>
+  <si>
+    <t>зиркзее</t>
+  </si>
+  <si>
+    <t>исак</t>
+  </si>
+  <si>
+    <t>йылмаз</t>
+  </si>
+  <si>
+    <t>кейн</t>
+  </si>
+  <si>
+    <t>кесси</t>
+  </si>
+  <si>
+    <t>куаме</t>
+  </si>
+  <si>
+    <t>ламела</t>
+  </si>
+  <si>
+    <t>ларсон</t>
+  </si>
+  <si>
+    <t>леау</t>
+  </si>
+  <si>
+    <t>ндомбеле</t>
+  </si>
+  <si>
+    <t>нобоа</t>
+  </si>
+  <si>
+    <t>оярсабаль</t>
+  </si>
+  <si>
+    <t>понсе</t>
+  </si>
+  <si>
+    <t>попов</t>
+  </si>
+  <si>
+    <t>раман</t>
+  </si>
+  <si>
+    <t>салаи</t>
+  </si>
+  <si>
+    <t>чалов</t>
+  </si>
+  <si>
+    <t>шаллаи</t>
+  </si>
+  <si>
+    <t>шимански</t>
+  </si>
+  <si>
+    <t>эль-несери</t>
+  </si>
+  <si>
+    <t>языджи</t>
+  </si>
+  <si>
+    <t>цска</t>
+  </si>
+  <si>
+    <t>майнц</t>
+  </si>
+  <si>
+    <t>сосьедад</t>
+  </si>
+  <si>
+    <t>лилль</t>
+  </si>
+  <si>
+    <t>тоттенхэм</t>
+  </si>
+  <si>
+    <t>спартак</t>
+  </si>
+  <si>
+    <t>сочи</t>
+  </si>
+  <si>
+    <t>реал сосьедад</t>
+  </si>
+  <si>
+    <t>динамо м</t>
+  </si>
+  <si>
+    <t>фрайбург</t>
+  </si>
+  <si>
+    <t>абрахам</t>
+  </si>
+  <si>
+    <t>блас</t>
+  </si>
+  <si>
+    <t>вегхорст</t>
+  </si>
+  <si>
+    <t>верету</t>
+  </si>
+  <si>
+    <t>гедеш</t>
+  </si>
+  <si>
+    <t>джеко</t>
+  </si>
+  <si>
+    <t>дзаньоло</t>
+  </si>
+  <si>
+    <t>ионов</t>
+  </si>
+  <si>
+    <t>йебоа</t>
+  </si>
+  <si>
+    <t>кабелла</t>
+  </si>
+  <si>
+    <t>кара</t>
+  </si>
+  <si>
+    <t>клаэссон</t>
+  </si>
+  <si>
+    <t>кореа</t>
+  </si>
+  <si>
+    <t>митрита</t>
+  </si>
+  <si>
+    <t>пашалич</t>
+  </si>
+  <si>
+    <t>пелегринни</t>
+  </si>
+  <si>
+    <t>рюдигер</t>
+  </si>
+  <si>
+    <t>сон</t>
+  </si>
+  <si>
+    <t>уильямс</t>
+  </si>
+  <si>
+    <t>андерсен</t>
+  </si>
+  <si>
+    <t>экитике</t>
+  </si>
+  <si>
+    <t>шкриньяр</t>
+  </si>
+  <si>
+    <t>янтшер</t>
+  </si>
+  <si>
+    <t>рома</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>вольфсбург</t>
+  </si>
+  <si>
+    <t>штурм</t>
+  </si>
+  <si>
+    <t>рапид</t>
+  </si>
+  <si>
+    <t>паок</t>
+  </si>
+  <si>
+    <t>атлетик</t>
+  </si>
+  <si>
+    <t>реймс</t>
+  </si>
+  <si>
+    <t>винисиус</t>
+  </si>
+  <si>
+    <t>дзюба</t>
+  </si>
+  <si>
+    <t>иконе</t>
+  </si>
+  <si>
+    <t>кастаньеда</t>
+  </si>
+  <si>
+    <t>клаудиньо</t>
+  </si>
+  <si>
+    <t>мален</t>
+  </si>
+  <si>
+    <t>мюллер</t>
+  </si>
+  <si>
+    <t>окафор</t>
+  </si>
+  <si>
+    <t>халлер</t>
+  </si>
+  <si>
+    <t>тадич</t>
+  </si>
+  <si>
+    <t>холанд</t>
+  </si>
+  <si>
+    <t>зенит</t>
+  </si>
+  <si>
+    <t>шериф</t>
+  </si>
+  <si>
+    <t>зальцбург</t>
+  </si>
+  <si>
+    <t>аякс</t>
+  </si>
+  <si>
+    <t>ванакен</t>
+  </si>
+  <si>
+    <t>гендузи</t>
+  </si>
+  <si>
+    <t>гризманн</t>
+  </si>
+  <si>
+    <t>депай</t>
+  </si>
+  <si>
+    <t>дэвид</t>
+  </si>
+  <si>
+    <t>заболотный</t>
+  </si>
+  <si>
+    <t>ланг</t>
+  </si>
+  <si>
+    <t>лемар</t>
+  </si>
+  <si>
+    <t>обамеянг</t>
+  </si>
+  <si>
+    <t>сака</t>
+  </si>
+  <si>
+    <t>смит-роу</t>
+  </si>
+  <si>
+    <t>траоре</t>
+  </si>
+  <si>
+    <t>эрнандес</t>
+  </si>
+  <si>
+    <t>брюгге</t>
+  </si>
+  <si>
+    <t>барселона</t>
+  </si>
+  <si>
+    <t>арсенал</t>
+  </si>
+  <si>
+    <t>гладбах</t>
+  </si>
+  <si>
+    <t>шахтер</t>
+  </si>
+  <si>
+    <t>ауар</t>
+  </si>
+  <si>
+    <t>фернандеш</t>
+  </si>
+  <si>
+    <t>грей</t>
+  </si>
+  <si>
+    <t>грэй</t>
+  </si>
+  <si>
+    <t>дембеле</t>
+  </si>
+  <si>
+    <t>джикия</t>
+  </si>
+  <si>
+    <t>дукуре</t>
+  </si>
+  <si>
+    <t>захарян</t>
+  </si>
+  <si>
+    <t>кварацхелия</t>
+  </si>
+  <si>
+    <t>кьеза</t>
+  </si>
+  <si>
+    <t>промес</t>
+  </si>
+  <si>
+    <t>рабьо</t>
+  </si>
+  <si>
+    <t>рондон</t>
+  </si>
+  <si>
+    <t>соболев</t>
+  </si>
+  <si>
+    <t>таунсенд</t>
+  </si>
+  <si>
+    <t>фолланд</t>
+  </si>
+  <si>
+    <t>экамби</t>
+  </si>
+  <si>
+    <t>ялчин</t>
+  </si>
+  <si>
+    <t>лион</t>
+  </si>
+  <si>
+    <t>рубин</t>
+  </si>
+  <si>
+    <t>бешикташ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +925,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -291,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +1011,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +1063,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,14 +1256,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -556,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -567,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,16 +1324,16 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -618,251 +1344,251 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -873,30 +1599,30 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -907,197 +1633,4281 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC03784-3DAC-4FEB-B195-A231B909D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,13 +16,24 @@
     <sheet name="7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="403">
   <si>
     <t>Team</t>
   </si>
@@ -856,13 +861,394 @@
   </si>
   <si>
     <t>бешикташ</t>
+  </si>
+  <si>
+    <t>адейеми</t>
+  </si>
+  <si>
+    <t>бамба</t>
+  </si>
+  <si>
+    <t>груневелд</t>
+  </si>
+  <si>
+    <t>де брёйне</t>
+  </si>
+  <si>
+    <t>кен</t>
+  </si>
+  <si>
+    <t>коман</t>
+  </si>
+  <si>
+    <t>сержио оливейра</t>
+  </si>
+  <si>
+    <t>фати</t>
+  </si>
+  <si>
+    <t>фоден</t>
+  </si>
+  <si>
+    <t>хавертц</t>
+  </si>
+  <si>
+    <t>вильярреал</t>
+  </si>
+  <si>
+    <t>батшуайи</t>
+  </si>
+  <si>
+    <t>жемалетдинов</t>
+  </si>
+  <si>
+    <t>морено</t>
+  </si>
+  <si>
+    <t>мхитарян</t>
+  </si>
+  <si>
+    <t>осимен</t>
+  </si>
+  <si>
+    <t>погба</t>
+  </si>
+  <si>
+    <t>тотенхэм</t>
+  </si>
+  <si>
+    <t>артур</t>
+  </si>
+  <si>
+    <t>верман</t>
+  </si>
+  <si>
+    <t>дака</t>
+  </si>
+  <si>
+    <t>дрейер</t>
+  </si>
+  <si>
+    <t>дуро</t>
+  </si>
+  <si>
+    <t>запата</t>
+  </si>
+  <si>
+    <t>иличич</t>
+  </si>
+  <si>
+    <t>ихееначо</t>
+  </si>
+  <si>
+    <t>кабрал</t>
+  </si>
+  <si>
+    <t>кварцехелия</t>
+  </si>
+  <si>
+    <t>лоренцо</t>
+  </si>
+  <si>
+    <t>ляказетт</t>
+  </si>
+  <si>
+    <t>опенда</t>
+  </si>
+  <si>
+    <t>педро</t>
+  </si>
+  <si>
+    <t>пеллегрини</t>
+  </si>
+  <si>
+    <t>сесай</t>
+  </si>
+  <si>
+    <t>сумаре</t>
+  </si>
+  <si>
+    <t>тюрам</t>
+  </si>
+  <si>
+    <t>хван</t>
+  </si>
+  <si>
+    <t>базель</t>
+  </si>
+  <si>
+    <t>херенвен</t>
+  </si>
+  <si>
+    <t>вильяреал</t>
+  </si>
+  <si>
+    <t>витесс</t>
+  </si>
+  <si>
+    <t>цюрих</t>
+  </si>
+  <si>
+    <t>вулверхэмптон</t>
+  </si>
+  <si>
+    <t>де брейне</t>
+  </si>
+  <si>
+    <t>маккени</t>
+  </si>
+  <si>
+    <t>марез</t>
+  </si>
+  <si>
+    <t>менди</t>
+  </si>
+  <si>
+    <t>мукиеле</t>
+  </si>
+  <si>
+    <t>неймар</t>
+  </si>
+  <si>
+    <t>паулинью</t>
+  </si>
+  <si>
+    <t>сане</t>
+  </si>
+  <si>
+    <t>тилль</t>
+  </si>
+  <si>
+    <t>фирмино</t>
+  </si>
+  <si>
+    <t>хадсон-одои</t>
+  </si>
+  <si>
+    <t>боруссия</t>
+  </si>
+  <si>
+    <t>борха</t>
+  </si>
+  <si>
+    <t>де брюйне</t>
+  </si>
+  <si>
+    <t>касьерра</t>
+  </si>
+  <si>
+    <t>керк</t>
+  </si>
+  <si>
+    <t>ларин</t>
+  </si>
+  <si>
+    <t>лукас</t>
+  </si>
+  <si>
+    <t>мир</t>
+  </si>
+  <si>
+    <t>окампос</t>
+  </si>
+  <si>
+    <t>поульсен</t>
+  </si>
+  <si>
+    <t>фекир</t>
+  </si>
+  <si>
+    <t>шерки</t>
+  </si>
+  <si>
+    <t>бетис</t>
+  </si>
+  <si>
+    <t>ренн</t>
+  </si>
+  <si>
+    <t>головин</t>
+  </si>
+  <si>
+    <t>доку</t>
+  </si>
+  <si>
+    <t>ингз</t>
+  </si>
+  <si>
+    <t>боаду</t>
+  </si>
+  <si>
+    <t>милик</t>
+  </si>
+  <si>
+    <t>мохамед</t>
+  </si>
+  <si>
+    <t>пакета</t>
+  </si>
+  <si>
+    <t>цубер</t>
+  </si>
+  <si>
+    <t>тикиньо</t>
+  </si>
+  <si>
+    <t>тонали</t>
+  </si>
+  <si>
+    <t>троссард</t>
+  </si>
+  <si>
+    <t>уоткинс</t>
+  </si>
+  <si>
+    <t>чалханоглу</t>
+  </si>
+  <si>
+    <t>шиманьский</t>
+  </si>
+  <si>
+    <t>астон вилла</t>
+  </si>
+  <si>
+    <t>галатасарай</t>
+  </si>
+  <si>
+    <t>аек</t>
+  </si>
+  <si>
+    <t>олимпиакос</t>
+  </si>
+  <si>
+    <t>жорджиньо</t>
+  </si>
+  <si>
+    <t>малком</t>
+  </si>
+  <si>
+    <t>суарез</t>
+  </si>
+  <si>
+    <t>адли</t>
+  </si>
+  <si>
+    <t>брандт</t>
+  </si>
+  <si>
+    <t>зелиньски</t>
+  </si>
+  <si>
+    <t>лакруа</t>
+  </si>
+  <si>
+    <t>мертенс</t>
+  </si>
+  <si>
+    <t>нмеча</t>
+  </si>
+  <si>
+    <t>сибачо</t>
+  </si>
+  <si>
+    <t>сисей</t>
+  </si>
+  <si>
+    <t>фасснахт</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>камавинга</t>
+  </si>
+  <si>
+    <t>кассьера</t>
+  </si>
+  <si>
+    <t>мэдисон</t>
+  </si>
+  <si>
+    <t>нуньес</t>
+  </si>
+  <si>
+    <t>плашалич</t>
+  </si>
+  <si>
+    <t>бенфика</t>
+  </si>
+  <si>
+    <t>бернарду силва</t>
+  </si>
+  <si>
+    <t>грилиш</t>
+  </si>
+  <si>
+    <t>малиновский</t>
+  </si>
+  <si>
+    <t>мессиас</t>
+  </si>
+  <si>
+    <t>рафа силва</t>
+  </si>
+  <si>
+    <t>рэшфорд</t>
+  </si>
+  <si>
+    <t>тете</t>
+  </si>
+  <si>
+    <t>энтони</t>
+  </si>
+  <si>
+    <t>яремчук</t>
+  </si>
+  <si>
+    <t>шахтёр</t>
+  </si>
+  <si>
+    <t>азмун</t>
+  </si>
+  <si>
+    <t>бебу</t>
+  </si>
+  <si>
+    <t>гарсия</t>
+  </si>
+  <si>
+    <t>демирович</t>
+  </si>
+  <si>
+    <t>кроос</t>
+  </si>
+  <si>
+    <t>макаров</t>
+  </si>
+  <si>
+    <t>рутер</t>
+  </si>
+  <si>
+    <t>тиссаудали</t>
+  </si>
+  <si>
+    <t>форналс</t>
+  </si>
+  <si>
+    <t>холер</t>
+  </si>
+  <si>
+    <t>хуанми</t>
+  </si>
+  <si>
+    <t>гент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,14 +1311,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -979,7 +1357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,27 +1389,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,24 +1423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1256,16 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1333,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1554,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1673,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1690,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1707,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1741,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1758,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1775,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1792,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1809,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1824,6 +2164,5338 @@
       </c>
       <c r="E33">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1832,14 +7504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +7528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1873,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1890,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1907,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -1924,7 +7596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1941,7 +7613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1958,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1975,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1992,7 +7664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -2009,7 +7681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2026,7 +7698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2043,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -2060,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2077,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2094,7 +7766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2111,7 +7783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +7800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -2145,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2162,7 +7834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -2196,7 +7868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -2213,7 +7885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2230,7 +7902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -2247,7 +7919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2264,7 +7936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2281,7 +7953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2296,6 +7968,512 @@
       </c>
       <c r="E27">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2304,16 +8482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2330,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -2347,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -2364,7 +8540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -2381,7 +8557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -2398,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -2415,7 +8591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -2432,7 +8608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -2449,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -2466,7 +8642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -2483,7 +8659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -2500,7 +8676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -2517,7 +8693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -2534,7 +8710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2551,7 +8727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -2568,7 +8744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
@@ -2585,7 +8761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
@@ -2602,7 +8778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -2619,7 +8795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -2636,7 +8812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -2653,7 +8829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -2670,7 +8846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
@@ -2687,7 +8863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
@@ -2704,7 +8880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -2721,7 +8897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
@@ -2738,7 +8914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -2761,14 +8937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2785,7 +8961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -2802,7 +8978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -2819,7 +8995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -2836,7 +9012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -2853,7 +9029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -2870,7 +9046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -2887,7 +9063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +9080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -2921,7 +9097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -2938,7 +9114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +9131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -2972,7 +9148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -2989,7 +9165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -3006,7 +9182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -3023,7 +9199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -3040,7 +9216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -3057,7 +9233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -3074,7 +9250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
@@ -3091,7 +9267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
@@ -3108,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3125,7 +9301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
@@ -3148,14 +9324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +9348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -3189,7 +9365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -3206,7 +9382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
@@ -3223,7 +9399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3240,7 +9416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -3257,7 +9433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -3274,7 +9450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -3291,7 +9467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -3308,7 +9484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -3325,7 +9501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -3342,7 +9518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -3359,7 +9535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -3376,7 +9552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -3393,7 +9569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -3410,7 +9586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -3427,7 +9603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>166</v>
       </c>
@@ -3444,7 +9620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
@@ -3461,7 +9637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -3478,7 +9654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3495,7 +9671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -3512,7 +9688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -3529,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -3546,7 +9722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -3563,7 +9739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -3580,7 +9756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>171</v>
       </c>
@@ -3597,7 +9773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
@@ -3614,7 +9790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -3631,7 +9807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>174</v>
       </c>
@@ -3648,7 +9824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -3665,7 +9841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -3682,7 +9858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -3699,7 +9875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -3716,7 +9892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -3733,7 +9909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>176</v>
       </c>
@@ -3750,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -3767,7 +9943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>178</v>
       </c>
@@ -3784,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>179</v>
       </c>
@@ -3801,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>180</v>
       </c>
@@ -3824,14 +10000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +10024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -3865,7 +10041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
@@ -3882,7 +10058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -3899,7 +10075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -3916,7 +10092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
@@ -3933,7 +10109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -3950,7 +10126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3967,7 +10143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -3984,7 +10160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -4001,7 +10177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -4018,7 +10194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -4035,7 +10211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4052,7 +10228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
@@ -4069,7 +10245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>201</v>
       </c>
@@ -4086,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>163</v>
       </c>
@@ -4103,7 +10279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -4120,7 +10296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -4137,7 +10313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -4154,7 +10330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>204</v>
       </c>
@@ -4171,7 +10347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -4188,7 +10364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
@@ -4205,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -4222,7 +10398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -4239,7 +10415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
@@ -4256,7 +10432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -4273,7 +10449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -4290,7 +10466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -4307,7 +10483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -4324,7 +10500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -4347,14 +10523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4371,7 +10547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -4388,7 +10564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -4405,7 +10581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -4422,7 +10598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
@@ -4439,7 +10615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -4456,7 +10632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -4473,7 +10649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -4490,7 +10666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -4507,7 +10683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
@@ -4524,7 +10700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -4541,7 +10717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -4558,7 +10734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>228</v>
       </c>
@@ -4575,7 +10751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -4592,7 +10768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>229</v>
       </c>
@@ -4609,7 +10785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -4626,7 +10802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -4643,7 +10819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -4660,7 +10836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>231</v>
       </c>
@@ -4677,7 +10853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -4700,14 +10876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +10900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>237</v>
       </c>
@@ -4741,7 +10917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -4758,7 +10934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>238</v>
       </c>
@@ -4775,7 +10951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>239</v>
       </c>
@@ -4792,7 +10968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>240</v>
       </c>
@@ -4809,7 +10985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -4826,7 +11002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -4843,7 +11019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -4860,7 +11036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
@@ -4877,7 +11053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -4894,7 +11070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>162</v>
       </c>
@@ -4911,7 +11087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -4928,7 +11104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -4945,7 +11121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -4962,7 +11138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4979,7 +11155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>243</v>
       </c>
@@ -4996,7 +11172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5013,7 +11189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -5030,7 +11206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>244</v>
       </c>
@@ -5047,7 +11223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -5064,7 +11240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>245</v>
       </c>
@@ -5081,7 +11257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -5098,7 +11274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -5115,7 +11291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -5132,7 +11308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>246</v>
       </c>
@@ -5149,7 +11325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -5166,7 +11342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -5183,7 +11359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>247</v>
       </c>
@@ -5200,7 +11376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -5217,7 +11393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>248</v>
       </c>
@@ -5234,7 +11410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>176</v>
       </c>
@@ -5251,7 +11427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5268,7 +11444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
@@ -5291,14 +11467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5315,7 +11491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5332,7 +11508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -5349,7 +11525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -5366,7 +11542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -5383,7 +11559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
@@ -5400,7 +11576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5417,7 +11593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -5434,7 +11610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>257</v>
       </c>
@@ -5451,7 +11627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
@@ -5468,7 +11644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>259</v>
       </c>
@@ -5485,7 +11661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -5502,7 +11678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>260</v>
       </c>
@@ -5519,7 +11695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>197</v>
       </c>
@@ -5536,7 +11712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -5553,7 +11729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -5570,7 +11746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>262</v>
       </c>
@@ -5587,7 +11763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -5604,7 +11780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>263</v>
       </c>
@@ -5621,7 +11797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -5638,7 +11814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -5655,7 +11831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -5672,7 +11848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -5689,7 +11865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>265</v>
       </c>
@@ -5706,7 +11882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -5723,7 +11899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -5740,7 +11916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -5757,7 +11933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>267</v>
       </c>
@@ -5774,7 +11950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -5791,7 +11967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>268</v>
       </c>
@@ -5808,7 +11984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>269</v>
       </c>
@@ -5825,7 +12001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>270</v>
       </c>
@@ -5842,7 +12018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -5859,7 +12035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>271</v>
       </c>
@@ -5876,7 +12052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -5893,7 +12069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>272</v>
       </c>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E8A563-E75A-46F3-93D0-E954E142C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -28,12 +34,12 @@
     <sheet name="19" sheetId="19" r:id="rId19"/>
     <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="402">
   <si>
     <t>Team</t>
   </si>
@@ -930,9 +936,6 @@
   </si>
   <si>
     <t>дуро</t>
-  </si>
-  <si>
-    <t>запата</t>
   </si>
   <si>
     <t>иличич</t>
@@ -1247,8 +1250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,6 +1314,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1357,7 +1368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,9 +1400,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1423,6 +1452,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1598,14 +1645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1622,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1673,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1724,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1809,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1860,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1911,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1945,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1962,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1979,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1996,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2013,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2030,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2047,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -2064,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -2115,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -2132,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2172,14 +2219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2196,7 +2243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>276</v>
       </c>
@@ -2213,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>277</v>
       </c>
@@ -2230,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2247,7 +2294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -2264,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>278</v>
       </c>
@@ -2281,7 +2328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>279</v>
       </c>
@@ -2298,7 +2345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
@@ -2315,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
@@ -2332,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -2349,7 +2396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
@@ -2366,7 +2413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>280</v>
       </c>
@@ -2383,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>281</v>
       </c>
@@ -2400,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -2417,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -2434,7 +2481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2451,7 +2498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -2468,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -2485,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -2502,7 +2549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -2519,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -2536,7 +2583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -2553,7 +2600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>282</v>
       </c>
@@ -2570,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>231</v>
       </c>
@@ -2587,7 +2634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>283</v>
       </c>
@@ -2604,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -2621,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>284</v>
       </c>
@@ -2638,7 +2685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
@@ -2655,7 +2702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -2672,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>232</v>
       </c>
@@ -2695,14 +2742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2719,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2736,7 +2783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -2753,7 +2800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
@@ -2770,7 +2817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
@@ -2787,7 +2834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2804,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2821,7 +2868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -2838,7 +2885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -2855,7 +2902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>196</v>
       </c>
@@ -2872,7 +2919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>288</v>
       </c>
@@ -2889,7 +2936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>102</v>
       </c>
@@ -2906,7 +2953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>163</v>
       </c>
@@ -2923,7 +2970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>137</v>
       </c>
@@ -2940,7 +2987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>289</v>
       </c>
@@ -2957,7 +3004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>290</v>
       </c>
@@ -2974,7 +3021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
@@ -2991,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>291</v>
       </c>
@@ -3008,7 +3055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>292</v>
       </c>
@@ -3025,7 +3072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -3042,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3059,7 +3106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>208</v>
       </c>
@@ -3076,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>271</v>
       </c>
@@ -3099,14 +3146,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3123,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -3140,12 +3189,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3157,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3174,12 +3223,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3191,7 +3240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
@@ -3208,12 +3257,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3225,7 +3274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>158</v>
       </c>
@@ -3242,7 +3291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -3259,7 +3308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>297</v>
       </c>
@@ -3276,7 +3325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>298</v>
       </c>
@@ -3293,7 +3342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -3310,7 +3359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -3327,32 +3376,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3361,97 +3410,97 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3463,9 +3512,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
         <v>252</v>
@@ -3480,15 +3529,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3497,15 +3546,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>123</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3514,15 +3563,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3531,114 +3580,114 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>267</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>185</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3650,12 +3699,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3667,12 +3716,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3684,37 +3733,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
         <v>12</v>
       </c>
     </row>
@@ -3724,14 +3756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3748,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>276</v>
       </c>
@@ -3765,7 +3797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -3782,7 +3814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -3799,7 +3831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>222</v>
       </c>
@@ -3816,12 +3848,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3833,7 +3865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>240</v>
       </c>
@@ -3850,7 +3882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -3867,7 +3899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -3884,7 +3916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3901,7 +3933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -3918,9 +3950,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
         <v>150</v>
@@ -3935,7 +3967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>281</v>
       </c>
@@ -3952,7 +3984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>135</v>
       </c>
@@ -3969,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>104</v>
       </c>
@@ -3986,9 +4018,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s">
         <v>149</v>
@@ -4003,9 +4035,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>150</v>
@@ -4020,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -4037,9 +4069,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>146</v>
@@ -4054,7 +4086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4071,9 +4103,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
@@ -4088,7 +4120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>228</v>
       </c>
@@ -4105,9 +4137,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
         <v>152</v>
@@ -4122,7 +4154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -4139,9 +4171,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
         <v>121</v>
@@ -4156,12 +4188,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4173,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -4190,7 +4222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -4207,9 +4239,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
         <v>120</v>
@@ -4224,7 +4256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>144</v>
       </c>
@@ -4241,9 +4273,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
         <v>234</v>
@@ -4258,9 +4290,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
@@ -4275,7 +4307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>284</v>
       </c>
@@ -4292,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>285</v>
       </c>
@@ -4309,9 +4341,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -4326,7 +4358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
@@ -4349,14 +4381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4373,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -4390,7 +4422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>287</v>
       </c>
@@ -4407,12 +4439,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4424,9 +4456,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
         <v>150</v>
@@ -4441,7 +4473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -4458,7 +4490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>133</v>
       </c>
@@ -4475,7 +4507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>242</v>
       </c>
@@ -4492,7 +4524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -4509,9 +4541,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>187</v>
@@ -4526,7 +4558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>163</v>
       </c>
@@ -4543,9 +4575,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -4560,7 +4592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>164</v>
       </c>
@@ -4577,12 +4609,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4594,9 +4626,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>275</v>
@@ -4611,9 +4643,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
         <v>185</v>
@@ -4628,9 +4660,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>150</v>
@@ -4645,7 +4677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -4662,9 +4694,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
         <v>155</v>
@@ -4679,7 +4711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -4696,9 +4728,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
@@ -4713,9 +4745,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
@@ -4730,7 +4762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>265</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -4764,7 +4796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>142</v>
       </c>
@@ -4781,7 +4813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -4798,7 +4830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
@@ -4815,7 +4847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
@@ -4832,7 +4864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -4849,12 +4881,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4866,7 +4898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>256</v>
       </c>
@@ -4883,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>284</v>
       </c>
@@ -4900,7 +4932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,9 +4949,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s">
         <v>273</v>
@@ -4934,7 +4966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>271</v>
       </c>
@@ -4957,14 +4989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4981,7 +5013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -4998,7 +5030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -5015,7 +5047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -5032,9 +5064,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s">
         <v>118</v>
@@ -5049,7 +5081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -5066,9 +5098,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -5083,7 +5115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -5100,7 +5132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -5117,7 +5149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -5134,12 +5166,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5151,7 +5183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
@@ -5168,7 +5200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>270</v>
       </c>
@@ -5185,7 +5217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -5202,7 +5234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>264</v>
       </c>
@@ -5219,7 +5251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
@@ -5236,9 +5268,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" t="s">
         <v>118</v>
@@ -5253,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>105</v>
       </c>
@@ -5270,7 +5302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -5287,9 +5319,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -5304,7 +5336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -5321,12 +5353,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5338,7 +5370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>291</v>
       </c>
@@ -5355,7 +5387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -5372,9 +5404,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" t="s">
         <v>273</v>
@@ -5389,12 +5421,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5406,12 +5438,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -5423,9 +5455,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" t="s">
         <v>122</v>
@@ -5440,9 +5472,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
@@ -5457,12 +5489,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5474,7 +5506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -5491,9 +5523,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
         <v>151</v>
@@ -5508,12 +5540,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5525,7 +5557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>271</v>
       </c>
@@ -5548,14 +5580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5572,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>276</v>
       </c>
@@ -5589,7 +5621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -5606,7 +5638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -5623,7 +5655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -5640,7 +5672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -5657,7 +5689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -5674,7 +5706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
@@ -5691,7 +5723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
@@ -5708,9 +5740,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -5725,7 +5757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -5742,7 +5774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>224</v>
       </c>
@@ -5759,7 +5791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -5776,9 +5808,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>233</v>
@@ -5793,7 +5825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
@@ -5810,7 +5842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>105</v>
       </c>
@@ -5827,7 +5859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -5844,7 +5876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -5861,7 +5893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -5878,9 +5910,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -5895,7 +5927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>142</v>
       </c>
@@ -5912,7 +5944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -5929,9 +5961,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" t="s">
         <v>120</v>
@@ -5946,7 +5978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>143</v>
       </c>
@@ -5963,9 +5995,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>147</v>
@@ -5980,7 +6012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>231</v>
       </c>
@@ -5997,7 +6029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>230</v>
       </c>
@@ -6020,14 +6052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6044,9 +6076,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -6061,7 +6093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -6078,7 +6110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
@@ -6095,9 +6127,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
@@ -6112,7 +6144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -6129,7 +6161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>222</v>
       </c>
@@ -6146,7 +6178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>240</v>
       </c>
@@ -6163,7 +6195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
@@ -6180,7 +6212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -6197,7 +6229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>143</v>
       </c>
@@ -6214,9 +6246,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>124</v>
@@ -6231,7 +6263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -6248,7 +6280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -6265,7 +6297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>226</v>
       </c>
@@ -6282,9 +6314,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
         <v>216</v>
@@ -6299,7 +6331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>243</v>
       </c>
@@ -6316,9 +6348,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>146</v>
@@ -6333,9 +6365,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
@@ -6350,7 +6382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -6367,7 +6399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -6384,9 +6416,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" t="s">
         <v>216</v>
@@ -6401,7 +6433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
@@ -6418,12 +6450,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6435,12 +6467,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -6452,12 +6484,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -6469,12 +6501,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" t="s">
         <v>373</v>
-      </c>
-      <c r="B27" t="s">
-        <v>374</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6486,7 +6518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -6509,14 +6541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6533,7 +6565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -6550,7 +6582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -6567,7 +6599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -6584,7 +6616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>196</v>
       </c>
@@ -6601,7 +6633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>289</v>
       </c>
@@ -6618,9 +6650,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
         <v>146</v>
@@ -6635,9 +6667,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -6652,7 +6684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>281</v>
       </c>
@@ -6669,7 +6701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -6686,9 +6718,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>252</v>
@@ -6703,7 +6735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>227</v>
       </c>
@@ -6720,7 +6752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>105</v>
       </c>
@@ -6737,9 +6769,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
@@ -6754,9 +6786,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>155</v>
@@ -6771,9 +6803,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -6788,7 +6820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>228</v>
       </c>
@@ -6805,12 +6837,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6822,7 +6854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>245</v>
       </c>
@@ -6839,9 +6871,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
@@ -6856,9 +6888,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B21" t="s">
         <v>153</v>
@@ -6873,7 +6905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -6890,7 +6922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>246</v>
       </c>
@@ -6907,9 +6939,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B24" t="s">
         <v>120</v>
@@ -6924,7 +6956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>247</v>
       </c>
@@ -6941,9 +6973,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -6958,12 +6990,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6975,7 +7007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -6998,14 +7030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7022,7 +7054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>230</v>
       </c>
@@ -7039,9 +7071,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>150</v>
@@ -7056,7 +7088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -7073,7 +7105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>239</v>
       </c>
@@ -7090,9 +7122,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>150</v>
@@ -7107,7 +7139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -7124,7 +7156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -7141,7 +7173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>134</v>
       </c>
@@ -7158,7 +7190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -7175,9 +7207,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" t="s">
         <v>153</v>
@@ -7192,7 +7224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -7209,7 +7241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -7226,7 +7258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7243,9 +7275,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15" t="s">
         <v>122</v>
@@ -7260,9 +7292,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>155</v>
@@ -7277,9 +7309,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
         <v>216</v>
@@ -7294,12 +7326,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -7311,12 +7343,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -7328,7 +7360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>142</v>
       </c>
@@ -7345,9 +7377,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
         <v>148</v>
@@ -7362,9 +7394,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
         <v>120</v>
@@ -7379,7 +7411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>143</v>
       </c>
@@ -7396,7 +7428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -7413,9 +7445,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
         <v>147</v>
@@ -7430,12 +7462,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7447,7 +7479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>232</v>
       </c>
@@ -7464,9 +7496,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" t="s">
         <v>236</v>
@@ -7481,12 +7513,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -7504,14 +7536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7528,7 +7560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -7545,7 +7577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -7562,7 +7594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -7579,7 +7611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -7596,7 +7628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -7613,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -7630,7 +7662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -7647,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -7664,7 +7696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -7681,7 +7713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -7698,7 +7730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -7715,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -7732,7 +7764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -7749,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -7766,7 +7798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -7800,7 +7832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -7817,7 +7849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -7834,7 +7866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -7851,7 +7883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -7868,7 +7900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -7885,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -7902,7 +7934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -7919,7 +7951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -7936,7 +7968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -7953,7 +7985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -7976,14 +8008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8000,7 +8032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>241</v>
       </c>
@@ -8017,7 +8049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
@@ -8034,9 +8066,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -8051,9 +8083,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>233</v>
@@ -8068,7 +8100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -8085,9 +8117,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -8102,7 +8134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
@@ -8119,7 +8151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -8136,9 +8168,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" t="s">
         <v>220</v>
@@ -8153,9 +8185,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
         <v>190</v>
@@ -8170,7 +8202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>260</v>
       </c>
@@ -8187,7 +8219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -8204,7 +8236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -8221,7 +8253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>262</v>
       </c>
@@ -8238,9 +8270,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>187</v>
@@ -8255,9 +8287,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B17" t="s">
         <v>146</v>
@@ -8272,9 +8304,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
         <v>189</v>
@@ -8289,7 +8321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
@@ -8306,7 +8338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>265</v>
       </c>
@@ -8323,9 +8355,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
@@ -8340,12 +8372,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -8357,7 +8389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -8374,12 +8406,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -8391,9 +8423,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -8408,9 +8440,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s">
         <v>190</v>
@@ -8425,12 +8457,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -8442,7 +8474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -8459,7 +8491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>178</v>
       </c>
@@ -8482,14 +8514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8506,7 +8538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
@@ -8523,7 +8555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -8540,7 +8572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -8557,7 +8589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -8574,7 +8606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -8591,7 +8623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
@@ -8608,7 +8640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -8625,7 +8657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>100</v>
       </c>
@@ -8642,7 +8674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -8659,7 +8691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>102</v>
       </c>
@@ -8676,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -8693,7 +8725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>104</v>
       </c>
@@ -8710,7 +8742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>105</v>
       </c>
@@ -8727,7 +8759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>106</v>
       </c>
@@ -8744,7 +8776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
@@ -8761,7 +8793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
@@ -8778,7 +8810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -8795,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>110</v>
       </c>
@@ -8812,7 +8844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
@@ -8829,7 +8861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -8846,7 +8878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>113</v>
       </c>
@@ -8863,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>114</v>
       </c>
@@ -8880,7 +8912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -8897,7 +8929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
@@ -8914,7 +8946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -8937,14 +8969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8961,7 +8993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -8978,7 +9010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -8995,7 +9027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>131</v>
       </c>
@@ -9012,7 +9044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -9029,7 +9061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -9046,7 +9078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -9063,7 +9095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>135</v>
       </c>
@@ -9080,7 +9112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -9097,7 +9129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
@@ -9114,7 +9146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -9131,7 +9163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -9148,7 +9180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
@@ -9165,7 +9197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -9182,7 +9214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -9199,7 +9231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
@@ -9216,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>142</v>
       </c>
@@ -9233,7 +9265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -9250,7 +9282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>143</v>
       </c>
@@ -9267,7 +9299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
@@ -9284,7 +9316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -9301,7 +9333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
@@ -9324,14 +9356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9348,7 +9380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -9365,7 +9397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -9382,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
@@ -9399,7 +9431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -9416,7 +9448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -9433,7 +9465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -9450,7 +9482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>159</v>
       </c>
@@ -9467,7 +9499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -9484,7 +9516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>99</v>
       </c>
@@ -9501,7 +9533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -9518,7 +9550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -9535,7 +9567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -9552,7 +9584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -9569,7 +9601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -9586,7 +9618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -9603,7 +9635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>166</v>
       </c>
@@ -9620,7 +9652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
@@ -9637,7 +9669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -9654,7 +9686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -9671,7 +9703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -9688,7 +9720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -9705,7 +9737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -9722,7 +9754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>169</v>
       </c>
@@ -9739,7 +9771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -9756,7 +9788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>171</v>
       </c>
@@ -9773,7 +9805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
@@ -9790,7 +9822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>173</v>
       </c>
@@ -9807,7 +9839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>174</v>
       </c>
@@ -9824,7 +9856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -9841,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>175</v>
       </c>
@@ -9858,7 +9890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -9875,7 +9907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -9892,7 +9924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>115</v>
       </c>
@@ -9909,7 +9941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>176</v>
       </c>
@@ -9926,7 +9958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>177</v>
       </c>
@@ -9943,7 +9975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>178</v>
       </c>
@@ -9960,7 +9992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>179</v>
       </c>
@@ -9977,7 +10009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>180</v>
       </c>
@@ -10000,14 +10032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10024,7 +10056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>191</v>
       </c>
@@ -10041,7 +10073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>192</v>
       </c>
@@ -10058,7 +10090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -10075,7 +10107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -10092,7 +10124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
@@ -10109,7 +10141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>196</v>
       </c>
@@ -10126,7 +10158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -10143,7 +10175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -10160,7 +10192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
@@ -10177,7 +10209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>198</v>
       </c>
@@ -10194,7 +10226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>199</v>
       </c>
@@ -10211,7 +10243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -10228,7 +10260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
@@ -10245,7 +10277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>201</v>
       </c>
@@ -10262,7 +10294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>163</v>
       </c>
@@ -10279,7 +10311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -10296,7 +10328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>203</v>
       </c>
@@ -10313,7 +10345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -10330,7 +10362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>204</v>
       </c>
@@ -10347,7 +10379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -10364,7 +10396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
@@ -10381,7 +10413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -10398,7 +10430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -10415,7 +10447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
@@ -10432,7 +10464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -10449,7 +10481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -10466,7 +10498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -10483,7 +10515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -10500,7 +10532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -10523,14 +10555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10547,7 +10579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -10564,7 +10596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>222</v>
       </c>
@@ -10581,7 +10613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>223</v>
       </c>
@@ -10598,7 +10630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>224</v>
       </c>
@@ -10615,7 +10647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -10632,7 +10664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>226</v>
       </c>
@@ -10649,7 +10681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>104</v>
       </c>
@@ -10666,7 +10698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -10683,7 +10715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
@@ -10700,7 +10732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -10717,7 +10749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
@@ -10734,7 +10766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>228</v>
       </c>
@@ -10751,7 +10783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -10768,7 +10800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>229</v>
       </c>
@@ -10785,7 +10817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
@@ -10802,7 +10834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -10819,7 +10851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>230</v>
       </c>
@@ -10836,7 +10868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>231</v>
       </c>
@@ -10853,7 +10885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -10876,14 +10908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10900,7 +10932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>237</v>
       </c>
@@ -10917,7 +10949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
@@ -10934,7 +10966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>238</v>
       </c>
@@ -10951,7 +10983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>239</v>
       </c>
@@ -10968,7 +11000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>240</v>
       </c>
@@ -10985,7 +11017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -11002,7 +11034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>241</v>
       </c>
@@ -11019,7 +11051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -11036,7 +11068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>242</v>
       </c>
@@ -11053,7 +11085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -11070,7 +11102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>162</v>
       </c>
@@ -11087,7 +11119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>200</v>
       </c>
@@ -11104,7 +11136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -11121,7 +11153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
@@ -11138,7 +11170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -11155,7 +11187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>243</v>
       </c>
@@ -11172,7 +11204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -11189,7 +11221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
@@ -11206,7 +11238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>244</v>
       </c>
@@ -11223,7 +11255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -11240,7 +11272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>245</v>
       </c>
@@ -11257,7 +11289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -11274,7 +11306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -11291,7 +11323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -11308,7 +11340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>246</v>
       </c>
@@ -11325,7 +11357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -11342,7 +11374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -11359,7 +11391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>247</v>
       </c>
@@ -11376,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -11393,7 +11425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>248</v>
       </c>
@@ -11410,7 +11442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>176</v>
       </c>
@@ -11427,7 +11459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -11444,7 +11476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
@@ -11467,14 +11499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11491,7 +11523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11508,7 +11540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>255</v>
       </c>
@@ -11525,7 +11557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -11542,7 +11574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>93</v>
       </c>
@@ -11559,7 +11591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
@@ -11576,7 +11608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -11593,7 +11625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>194</v>
       </c>
@@ -11610,7 +11642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>257</v>
       </c>
@@ -11627,7 +11659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>258</v>
       </c>
@@ -11644,7 +11676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>259</v>
       </c>
@@ -11661,7 +11693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>196</v>
       </c>
@@ -11678,7 +11710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>260</v>
       </c>
@@ -11695,7 +11727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>197</v>
       </c>
@@ -11712,7 +11744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -11729,7 +11761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
@@ -11746,7 +11778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>262</v>
       </c>
@@ -11763,7 +11795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -11780,7 +11812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>263</v>
       </c>
@@ -11797,7 +11829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -11814,7 +11846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -11831,7 +11863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -11848,7 +11880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -11865,7 +11897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>265</v>
       </c>
@@ -11882,7 +11914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -11899,7 +11931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -11916,7 +11948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -11933,7 +11965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>267</v>
       </c>
@@ -11950,7 +11982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -11967,7 +11999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>268</v>
       </c>
@@ -11984,7 +12016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>269</v>
       </c>
@@ -12001,7 +12033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>270</v>
       </c>
@@ -12018,7 +12050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -12035,7 +12067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>271</v>
       </c>
@@ -12052,7 +12084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -12069,7 +12101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>272</v>
       </c>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\euroleague\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448582C2-469B-434F-A0EC-940DB731CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10836" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,13 +23,14 @@
     <sheet name="8" sheetId="8" r:id="rId8"/>
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="292">
   <si>
     <t>Team</t>
   </si>
@@ -830,13 +837,82 @@
   </si>
   <si>
     <t>базель</t>
+  </si>
+  <si>
+    <t>аларио</t>
+  </si>
+  <si>
+    <t>ассомбалонга</t>
+  </si>
+  <si>
+    <t>балотелли</t>
+  </si>
+  <si>
+    <t>бла</t>
+  </si>
+  <si>
+    <t>винд</t>
+  </si>
+  <si>
+    <t>зайц</t>
+  </si>
+  <si>
+    <t>изидор</t>
+  </si>
+  <si>
+    <t>коло-муани</t>
+  </si>
+  <si>
+    <t>ляказетт</t>
+  </si>
+  <si>
+    <t>озил</t>
+  </si>
+  <si>
+    <t>сака</t>
+  </si>
+  <si>
+    <t>смит-роу</t>
+  </si>
+  <si>
+    <t>ундер</t>
+  </si>
+  <si>
+    <t>уткин</t>
+  </si>
+  <si>
+    <t>чикаллеши</t>
+  </si>
+  <si>
+    <t>эль-хадди</t>
+  </si>
+  <si>
+    <t>адана</t>
+  </si>
+  <si>
+    <t>адана демирспор</t>
+  </si>
+  <si>
+    <t>нант</t>
+  </si>
+  <si>
+    <t>вольфсбург</t>
+  </si>
+  <si>
+    <t>арсенал</t>
+  </si>
+  <si>
+    <t>ахмат</t>
+  </si>
+  <si>
+    <t>коньяспор</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,17 +971,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -943,9 +1027,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +1061,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,9 +1113,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1186,14 +1306,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1397,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1516,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1533,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1601,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1618,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1658,14 +1780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>249</v>
       </c>
@@ -1716,7 +1838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -1733,7 +1855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
@@ -1750,7 +1872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -1801,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>253</v>
       </c>
@@ -1818,7 +1940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>254</v>
       </c>
@@ -1835,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
@@ -1852,7 +1974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -1869,7 +1991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1903,7 +2025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>256</v>
       </c>
@@ -1920,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -1937,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -1954,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>258</v>
       </c>
@@ -1971,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -1988,7 +2110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -2005,7 +2127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
@@ -2022,7 +2144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>261</v>
       </c>
@@ -2039,7 +2161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>262</v>
       </c>
@@ -2056,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>263</v>
       </c>
@@ -2073,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2090,7 +2212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2105,6 +2227,531 @@
       </c>
       <c r="E26">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2113,14 +2760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2171,7 +2818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2188,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -2205,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2239,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2256,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2273,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2290,7 +2937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2324,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2358,7 +3005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2375,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2392,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2409,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2426,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -2443,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -2460,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -2477,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2494,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2511,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2528,7 +3175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2585,14 +3232,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2626,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2643,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -2660,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +3324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +3341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -2711,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -2728,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2745,7 +3392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -2779,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -2796,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -2813,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +3477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2847,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -2864,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -2881,7 +3528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -2898,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -2915,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -2932,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -2949,7 +3596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -2966,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2983,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3000,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -3017,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -3034,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -3051,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -3068,7 +3715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -3091,14 +3738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -3132,7 +3779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -3149,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -3166,7 +3813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -3183,7 +3830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -3200,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3217,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -3251,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3268,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3285,7 +3932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -3302,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -3319,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3336,7 +3983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -3353,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -3370,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3387,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -3404,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -3421,7 +4068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -3438,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>125</v>
       </c>
@@ -3455,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -3495,14 +4142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3519,7 +4166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3536,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -3553,7 +4200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -3570,7 +4217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3587,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -3604,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -3621,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -3638,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -3655,7 +4302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -3672,7 +4319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
@@ -3689,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3706,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
@@ -3723,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -3740,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
@@ -3757,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -3774,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -3791,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
@@ -3808,7 +4455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -3825,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
@@ -3842,7 +4489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
@@ -3859,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3876,7 +4523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>151</v>
       </c>
@@ -3893,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -3916,14 +4563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3940,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -3957,7 +4604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -3974,7 +4621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -3991,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>162</v>
       </c>
@@ -4008,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
@@ -4025,7 +4672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -4042,7 +4689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>164</v>
       </c>
@@ -4059,7 +4706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
@@ -4076,7 +4723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>166</v>
       </c>
@@ -4093,7 +4740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -4110,7 +4757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -4127,7 +4774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
@@ -4144,7 +4791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>170</v>
       </c>
@@ -4161,7 +4808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4178,7 +4825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>172</v>
       </c>
@@ -4195,7 +4842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -4212,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -4229,7 +4876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>121</v>
       </c>
@@ -4246,7 +4893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -4263,7 +4910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -4280,7 +4927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
@@ -4297,7 +4944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
@@ -4314,7 +4961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -4331,7 +4978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>179</v>
       </c>
@@ -4354,14 +5001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +5025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -4395,7 +5042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -4412,7 +5059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -4429,7 +5076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -4446,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -4463,7 +5110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -4480,7 +5127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -4497,7 +5144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -4514,7 +5161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>198</v>
       </c>
@@ -4531,7 +5178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -4548,7 +5195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -4565,7 +5212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -4582,7 +5229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
@@ -4599,7 +5246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -4616,7 +5263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>201</v>
       </c>
@@ -4633,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>118</v>
       </c>
@@ -4650,7 +5297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>179</v>
       </c>
@@ -4667,7 +5314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -4684,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -4701,7 +5348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
@@ -4718,7 +5365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -4735,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>205</v>
       </c>
@@ -4752,7 +5399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>206</v>
       </c>
@@ -4769,7 +5416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>207</v>
       </c>
@@ -4786,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>208</v>
       </c>
@@ -4803,7 +5450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>209</v>
       </c>
@@ -4820,7 +5467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>210</v>
       </c>
@@ -4843,14 +5490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4867,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -4884,7 +5531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -4901,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>216</v>
       </c>
@@ -4918,7 +5565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
@@ -4935,7 +5582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -4952,7 +5599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4969,7 +5616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
@@ -4986,7 +5633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -5003,7 +5650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -5020,7 +5667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>220</v>
       </c>
@@ -5037,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>221</v>
       </c>
@@ -5054,7 +5701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -5071,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -5088,7 +5735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
@@ -5105,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>222</v>
       </c>
@@ -5122,7 +5769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -5139,7 +5786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -5156,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
@@ -5173,7 +5820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -5190,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>225</v>
       </c>
@@ -5207,7 +5854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -5224,7 +5871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -5241,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -5258,7 +5905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>178</v>
       </c>
@@ -5275,7 +5922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -5292,7 +5939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5309,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -5332,14 +5979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +6003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -5373,7 +6020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5390,7 +6037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5407,7 +6054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -5424,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -5441,7 +6088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -5458,7 +6105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -5475,7 +6122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>231</v>
       </c>
@@ -5492,7 +6139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>232</v>
       </c>
@@ -5509,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
@@ -5526,7 +6173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>234</v>
       </c>
@@ -5543,7 +6190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>235</v>
       </c>
@@ -5560,7 +6207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>236</v>
       </c>
@@ -5577,7 +6224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>237</v>
       </c>
@@ -5594,7 +6241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>238</v>
       </c>
@@ -5611,7 +6258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -5628,7 +6275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -5645,7 +6292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>239</v>
       </c>
@@ -5662,7 +6309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
@@ -5679,7 +6326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -5696,7 +6343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>241</v>
       </c>
@@ -5713,7 +6360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>242</v>
       </c>
@@ -5730,7 +6377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -5747,7 +6394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +6411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>243</v>
       </c>

--- a/output/bombs.xlsx
+++ b/output/bombs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\euroleague\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448582C2-469B-434F-A0EC-940DB731CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10836" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -24,13 +18,22 @@
     <sheet name="9" sheetId="9" r:id="rId9"/>
     <sheet name="10" sheetId="10" r:id="rId10"/>
     <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="411">
   <si>
     <t>Team</t>
   </si>
@@ -906,13 +909,370 @@
   </si>
   <si>
     <t>коньяспор</t>
+  </si>
+  <si>
+    <t>авонийи</t>
+  </si>
+  <si>
+    <t>беккер</t>
+  </si>
+  <si>
+    <t>делор</t>
+  </si>
+  <si>
+    <t>захарян</t>
+  </si>
+  <si>
+    <t>керк</t>
+  </si>
+  <si>
+    <t>мартен</t>
+  </si>
+  <si>
+    <t>морелос</t>
+  </si>
+  <si>
+    <t>салаи</t>
+  </si>
+  <si>
+    <t>сперцян</t>
+  </si>
+  <si>
+    <t>таверньер</t>
+  </si>
+  <si>
+    <t>якумакис</t>
+  </si>
+  <si>
+    <t>унион берлин</t>
+  </si>
+  <si>
+    <t>кёльн</t>
+  </si>
+  <si>
+    <t>рейнджерс</t>
+  </si>
+  <si>
+    <t>краснодар</t>
+  </si>
+  <si>
+    <t>селтик</t>
+  </si>
+  <si>
+    <t>гнабри</t>
+  </si>
+  <si>
+    <t>депай</t>
+  </si>
+  <si>
+    <t>жота</t>
+  </si>
+  <si>
+    <t>зехави</t>
+  </si>
+  <si>
+    <t>пайет</t>
+  </si>
+  <si>
+    <t>сане</t>
+  </si>
+  <si>
+    <t>синистерра</t>
+  </si>
+  <si>
+    <t>фейеноорд</t>
+  </si>
+  <si>
+    <t>бикфалви</t>
+  </si>
+  <si>
+    <t>буркардт</t>
+  </si>
+  <si>
+    <t>ван дейк</t>
+  </si>
+  <si>
+    <t>гийомено</t>
+  </si>
+  <si>
+    <t>дуа</t>
+  </si>
+  <si>
+    <t>ихеаначо</t>
+  </si>
+  <si>
+    <t>магомадов</t>
+  </si>
+  <si>
+    <t>мэдисон</t>
+  </si>
+  <si>
+    <t>пиняев</t>
+  </si>
+  <si>
+    <t>полоз</t>
+  </si>
+  <si>
+    <t>сарвели</t>
+  </si>
+  <si>
+    <t>холер</t>
+  </si>
+  <si>
+    <t>эриксен</t>
+  </si>
+  <si>
+    <t>ятабаре</t>
+  </si>
+  <si>
+    <t>урал</t>
+  </si>
+  <si>
+    <t>санкт гален</t>
+  </si>
+  <si>
+    <t>санкт-галлен</t>
+  </si>
+  <si>
+    <t>крылья советов</t>
+  </si>
+  <si>
+    <t>ростов</t>
+  </si>
+  <si>
+    <t>сивасспор</t>
+  </si>
+  <si>
+    <t>вернер</t>
+  </si>
+  <si>
+    <t>глик</t>
+  </si>
+  <si>
+    <t>лингр</t>
+  </si>
+  <si>
+    <t>руф</t>
+  </si>
+  <si>
+    <t>тете</t>
+  </si>
+  <si>
+    <t>фабиньо</t>
+  </si>
+  <si>
+    <t>славия</t>
+  </si>
+  <si>
+    <t>вильям жозе</t>
+  </si>
+  <si>
+    <t>вуд</t>
+  </si>
+  <si>
+    <t>ежов</t>
+  </si>
+  <si>
+    <t>зиньковский</t>
+  </si>
+  <si>
+    <t>исаак</t>
+  </si>
+  <si>
+    <t>кассьерра</t>
+  </si>
+  <si>
+    <t>маркезано</t>
+  </si>
+  <si>
+    <t>ольмо</t>
+  </si>
+  <si>
+    <t>сарабия</t>
+  </si>
+  <si>
+    <t>сен-максимен</t>
+  </si>
+  <si>
+    <t>сибачо</t>
+  </si>
+  <si>
+    <t>та</t>
+  </si>
+  <si>
+    <t>шомуродов</t>
+  </si>
+  <si>
+    <t>яремчук</t>
+  </si>
+  <si>
+    <t>сочи</t>
+  </si>
+  <si>
+    <t>цюрих</t>
+  </si>
+  <si>
+    <t>спортинг</t>
+  </si>
+  <si>
+    <t>янг бойз</t>
+  </si>
+  <si>
+    <t>комличенко</t>
+  </si>
+  <si>
+    <t>костич</t>
+  </si>
+  <si>
+    <t>кулусевски</t>
+  </si>
+  <si>
+    <t>мартинез</t>
+  </si>
+  <si>
+    <t>мин</t>
+  </si>
+  <si>
+    <t>рэшфорд</t>
+  </si>
+  <si>
+    <t>фомин</t>
+  </si>
+  <si>
+    <t>эрнандес</t>
+  </si>
+  <si>
+    <t>янтшер</t>
+  </si>
+  <si>
+    <t>штурм</t>
+  </si>
+  <si>
+    <t>агаларов</t>
+  </si>
+  <si>
+    <t>вегхорст</t>
+  </si>
+  <si>
+    <t>дала</t>
+  </si>
+  <si>
+    <t>манелов</t>
+  </si>
+  <si>
+    <t>матета</t>
+  </si>
+  <si>
+    <t>маунт</t>
+  </si>
+  <si>
+    <t>олайинка</t>
+  </si>
+  <si>
+    <t>поульсен</t>
+  </si>
+  <si>
+    <t>сабослаи</t>
+  </si>
+  <si>
+    <t>сисей</t>
+  </si>
+  <si>
+    <t>торнстра</t>
+  </si>
+  <si>
+    <t>троссард</t>
+  </si>
+  <si>
+    <t>тэцл</t>
+  </si>
+  <si>
+    <t>фирмино</t>
+  </si>
+  <si>
+    <t>уфа</t>
+  </si>
+  <si>
+    <t>бернли</t>
+  </si>
+  <si>
+    <t>араухо</t>
+  </si>
+  <si>
+    <t>гетце</t>
+  </si>
+  <si>
+    <t>дессерс</t>
+  </si>
+  <si>
+    <t>диаш</t>
+  </si>
+  <si>
+    <t>лопес</t>
+  </si>
+  <si>
+    <t>милитао</t>
+  </si>
+  <si>
+    <t>олусегун</t>
+  </si>
+  <si>
+    <t>тюрам</t>
+  </si>
+  <si>
+    <t>фофана</t>
+  </si>
+  <si>
+    <t>хофман</t>
+  </si>
+  <si>
+    <t>эмболо</t>
+  </si>
+  <si>
+    <t>боруссия м</t>
+  </si>
+  <si>
+    <t>глушенков</t>
+  </si>
+  <si>
+    <t>исак</t>
+  </si>
+  <si>
+    <t>карраско</t>
+  </si>
+  <si>
+    <t>коррера</t>
+  </si>
+  <si>
+    <t>педраса</t>
+  </si>
+  <si>
+    <t>рафинья</t>
+  </si>
+  <si>
+    <t>садулаев</t>
+  </si>
+  <si>
+    <t>суарез</t>
+  </si>
+  <si>
+    <t>тюкавин</t>
+  </si>
+  <si>
+    <t>эджуке</t>
+  </si>
+  <si>
+    <t>вильяреал</t>
+  </si>
+  <si>
+    <t>лидс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,25 +1331,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1027,9 +1379,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,27 +1413,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1113,27 +1447,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1306,16 +1622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1349,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1485,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1519,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1723,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1740,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1780,14 +2094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +2118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -1821,7 +2135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>249</v>
       </c>
@@ -1838,7 +2152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -1855,7 +2169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>251</v>
       </c>
@@ -1872,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1906,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -1923,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>253</v>
       </c>
@@ -1940,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>254</v>
       </c>
@@ -1957,7 +2271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
@@ -1974,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
@@ -1991,7 +2305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2008,7 +2322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2025,7 +2339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>256</v>
       </c>
@@ -2042,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -2059,7 +2373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>117</v>
       </c>
@@ -2076,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>258</v>
       </c>
@@ -2093,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -2110,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -2127,7 +2441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>260</v>
       </c>
@@ -2144,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>261</v>
       </c>
@@ -2161,7 +2475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>262</v>
       </c>
@@ -2178,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>263</v>
       </c>
@@ -2195,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2235,16 +2549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -2278,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>269</v>
       </c>
@@ -2295,7 +2607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>270</v>
       </c>
@@ -2312,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>271</v>
       </c>
@@ -2329,7 +2641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2346,7 +2658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
@@ -2363,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>273</v>
       </c>
@@ -2380,7 +2692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -2397,7 +2709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +2726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2448,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>274</v>
       </c>
@@ -2465,7 +2777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>275</v>
       </c>
@@ -2482,7 +2794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2499,7 +2811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>276</v>
       </c>
@@ -2516,7 +2828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -2533,7 +2845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>277</v>
       </c>
@@ -2550,7 +2862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>201</v>
       </c>
@@ -2567,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -2584,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -2601,7 +2913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>258</v>
       </c>
@@ -2618,7 +2930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
@@ -2635,7 +2947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>280</v>
       </c>
@@ -2652,7 +2964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>206</v>
       </c>
@@ -2669,7 +2981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>281</v>
       </c>
@@ -2686,7 +2998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>282</v>
       </c>
@@ -2703,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>283</v>
       </c>
@@ -2720,7 +3032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>284</v>
       </c>
@@ -2737,7 +3049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2752,6 +3064,4020 @@
       </c>
       <c r="E30">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2760,14 +7086,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2784,7 +7110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2801,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -2818,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -2835,7 +7161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -2852,7 +7178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2869,7 +7195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -2886,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2903,7 +7229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2920,7 +7246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
@@ -2937,7 +7263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -2954,7 +7280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2971,7 +7297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2988,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -3005,7 +7331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -3022,7 +7348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -3039,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +7382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -3073,7 +7399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -3090,7 +7416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -3107,7 +7433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -3124,7 +7450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -3141,7 +7467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,7 +7484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -3175,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3192,7 +7518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -3209,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -3224,6 +7550,461 @@
       </c>
       <c r="E27">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3232,14 +8013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +8037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -3273,7 +8054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -3290,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -3307,7 +8088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -3324,7 +8105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -3341,7 +8122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,7 +8139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -3375,7 +8156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3392,7 +8173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3409,7 +8190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,7 +8207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>89</v>
       </c>
@@ -3443,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -3460,7 +8241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3477,7 +8258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3494,7 +8275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -3511,7 +8292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -3528,7 +8309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -3545,7 +8326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -3562,7 +8343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -3579,7 +8360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -3596,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -3613,7 +8394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -3630,7 +8411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>99</v>
       </c>
@@ -3647,7 +8428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -3664,7 +8445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -3681,7 +8462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -3698,7 +8479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -3715,7 +8496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
@@ -3738,14 +8519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3762,7 +8543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -3779,7 +8560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -3796,7 +8577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -3813,7 +8594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -3830,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -3847,7 +8628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3864,7 +8645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3881,7 +8662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -3898,7 +8679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -3915,7 +8696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>117</v>
       </c>
@@ -3932,7 +8713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>118</v>
       </c>
@@ -3949,7 +8730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>119</v>
       </c>
@@ -3966,7 +8747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3983,7 +8764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -4000,7 +8781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -4017,7 +8798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -4034,7 +8815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -4051,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -4068,7 +8849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -4085,7 +8866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>125</v>
       </c>
@@ -4102,7 +8883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -4119,7 +8900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
@@ -4142,14 +8923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4166,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -4183,7 +8964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
@@ -4200,7 +8981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -4217,7 +8998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -4234,7 +9015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -4251,7 +9032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
@@ -4268,7 +9049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -4285,7 +9066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -4302,7 +9083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>141</v>
       </c>
@@ -4319,7 +9100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
@@ -4336,7 +9117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -4353,7 +9134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
@@ -4370,7 +9151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -4387,7 +9168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4404,7 +9185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -4421,7 +9202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -4438,7 +9219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
@@ -4455,7 +9236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>148</v>
       </c>
@@ -4472,7 +9253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
@@ -4489,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>150</v>
       </c>
@@ -4506,7 +9287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -4523,7 +9304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>151</v>
       </c>
@@ -4540,7 +9321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -4563,14 +9344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4587,7 +9368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -4604,7 +9385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>160</v>
       </c>
@@ -4621,7 +9402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>161</v>
       </c>
@@ -4638,7 +9419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>162</v>
       </c>
@@ -4655,7 +9436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>163</v>
       </c>
@@ -4672,7 +9453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -4689,7 +9470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>164</v>
       </c>
@@ -4706,7 +9487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>165</v>
       </c>
@@ -4723,7 +9504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>166</v>
       </c>
@@ -4740,7 +9521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -4757,7 +9538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
@@ -4774,7 +9555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
@@ -4791,7 +9572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>170</v>
       </c>
@@ -4808,7 +9589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -4825,7 +9606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>172</v>
       </c>
@@ -4842,7 +9623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -4859,7 +9640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -4876,7 +9657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>121</v>
       </c>
@@ -4893,7 +9674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
@@ -4910,7 +9691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>175</v>
       </c>
@@ -4927,7 +9708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
@@ -4944,7 +9725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
@@ -4961,7 +9742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>178</v>
       </c>
@@ -4978,7 +9759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>179</v>
       </c>
@@ -5001,14 +9782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +9806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -5042,7 +9823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -5059,7 +9840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -5076,7 +9857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -5093,7 +9874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5110,7 +9891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -5127,7 +9908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>196</v>
       </c>
@@ -5144,7 +9925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>197</v>
       </c>
@@ -5161,7 +9942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>198</v>
       </c>
@@ -5178,7 +9959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
@@ -5195,7 +9976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
@@ -5212,7 +9993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -5229,7 +10010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>200</v>
       </c>
@@ -5246,7 +10027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -5263,7 +10044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>201</v>
       </c>
@@ -5280,7 +10061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>118</v>
       </c>
@@ -5297,7 +10078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>179</v>
       </c>
@@ -5314,7 +10095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -5331,7 +10112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -5348,7 +10129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
@@ -5365,7 +10146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -5382,7 +10163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>205</v>
       </c>
@@ -5399,7 +10180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>206</v>
       </c>
@@ -5416,7 +10197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>207</v>
       </c>
@@ -5433,7 +10214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>208</v>
       </c>
@@ -5450,7 +10231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>209</v>
       </c>
@@ -5467,7 +10248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>210</v>
       </c>
@@ -5490,14 +10271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5514,7 +10295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>192</v>
       </c>
@@ -5531,7 +10312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -5548,7 +10329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>216</v>
       </c>
@@ -5565,7 +10346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>217</v>
       </c>
@@ -5582,7 +10363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -5599,7 +10380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5616,7 +10397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
@@ -5633,7 +10414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -5650,7 +10431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
@@ -5667,7 +10448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>220</v>
       </c>
@@ -5684,7 +10465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>221</v>
       </c>
@@ -5701,7 +10482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -5718,7 +10499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -5735,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
@@ -5752,7 +10533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>222</v>
       </c>
@@ -5769,7 +10550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -5786,7 +10567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
@@ -5803,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
@@ -5820,7 +10601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>173</v>
       </c>
@@ -5837,7 +10618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>225</v>
       </c>
@@ -5854,7 +10635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -5871,7 +10652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -5888,7 +10669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -5905,7 +10686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>178</v>
       </c>
@@ -5922,7 +10703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -5939,7 +10720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -5956,7 +10737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -5979,14 +10760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6003,7 +10784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
@@ -6020,7 +10801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -6037,7 +10818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -6054,7 +10835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>229</v>
       </c>
@@ -6071,7 +10852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -6088,7 +10869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -6105,7 +10886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>162</v>
       </c>
@@ -6122,7 +10903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>231</v>
       </c>
@@ -6139,7 +10920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>232</v>
       </c>
@@ -6156,7 +10937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
@@ -6173,7 +10954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>234</v>
       </c>
@@ -6190,7 +10971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>235</v>
       </c>
@@ -6207,7 +10988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>236</v>
       </c>
@@ -6224,7 +11005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>237</v>
       </c>
@@ -6241,7 +11022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>238</v>
       </c>
@@ -6258,7 +11039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -6275,7 +11056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>148</v>
       </c>
@@ -6292,7 +11073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>239</v>
       </c>
@@ -6309,7 +11090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
@@ -6326,7 +11107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -6343,7 +11124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>241</v>
       </c>
@@ -6360,7 +11141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>242</v>
       </c>
@@ -6377,7 +11158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -6394,7 +11175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -6411,7 +11192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>243</v>
       </c>
